--- a/acs/Geographies for Kevin.xlsx
+++ b/acs/Geographies for Kevin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44191F9F-6120-4849-A7D6-68E150FDB0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572B5406-2E58-47D3-ACFE-029856CCEF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="522">
   <si>
     <t>filename</t>
   </si>
@@ -1599,6 +1599,12 @@
   </si>
   <si>
     <t>upper state legislative</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>finished</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,10 +1652,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1964,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="J274" sqref="J274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1987,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2002,1944 +2009,2286 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C9" t="s">
-        <v>446</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C10" t="s">
-        <v>446</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C12" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C14" t="s">
-        <v>446</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>2009</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>2006</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>2009</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>2017</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C34" t="s">
-        <v>446</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C35" t="s">
-        <v>446</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C36" t="s">
-        <v>446</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C37" t="s">
-        <v>446</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C38" t="s">
-        <v>446</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C39" t="s">
-        <v>446</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C40" t="s">
-        <v>446</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C41" t="s">
-        <v>446</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C42" t="s">
-        <v>446</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C43" t="s">
-        <v>446</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C44" t="s">
-        <v>446</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G44">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C45" t="s">
-        <v>446</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C50" t="s">
-        <v>446</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C51" t="s">
-        <v>446</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C52" t="s">
-        <v>446</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>2007</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C53" t="s">
-        <v>446</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C54" t="s">
-        <v>446</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F54" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>2005</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C55" t="s">
-        <v>446</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F55" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>2005</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C56" t="s">
-        <v>446</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F56" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C57" t="s">
-        <v>446</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F57" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C58" t="s">
-        <v>446</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F58" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C59" t="s">
-        <v>446</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F59" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C60" t="s">
-        <v>446</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F60" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C61" t="s">
-        <v>446</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F61" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C62" t="s">
-        <v>446</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F62" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C63" t="s">
-        <v>446</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F63" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F64" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F65" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F66" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F67" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F68" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F69" t="s">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C70" t="s">
-        <v>446</v>
-      </c>
-      <c r="D70" t="s">
-        <v>513</v>
-      </c>
-      <c r="E70">
+      <c r="C70" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E70" s="1">
         <v>4</v>
       </c>
-      <c r="F70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70">
+      <c r="F70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C71" t="s">
-        <v>446</v>
-      </c>
-      <c r="D71" t="s">
-        <v>513</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71">
+      <c r="C71" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C72" t="s">
-        <v>446</v>
-      </c>
-      <c r="D72" t="s">
-        <v>513</v>
-      </c>
-      <c r="E72">
+      <c r="C72" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E72" s="1">
         <v>4</v>
       </c>
-      <c r="F72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G72">
+      <c r="F72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C73" t="s">
-        <v>446</v>
-      </c>
-      <c r="D73" t="s">
-        <v>513</v>
-      </c>
-      <c r="E73">
+      <c r="C73" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E73" s="1">
         <v>7</v>
       </c>
-      <c r="F73" t="s">
-        <v>71</v>
-      </c>
-      <c r="G73">
+      <c r="F73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C74" t="s">
-        <v>446</v>
-      </c>
-      <c r="D74" t="s">
-        <v>513</v>
-      </c>
-      <c r="E74">
+      <c r="C74" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E74" s="1">
         <v>8</v>
       </c>
-      <c r="F74" t="s">
-        <v>71</v>
-      </c>
-      <c r="G74">
+      <c r="F74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C75" t="s">
-        <v>446</v>
-      </c>
-      <c r="D75" t="s">
-        <v>513</v>
-      </c>
-      <c r="E75">
+      <c r="C75" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E75" s="1">
         <v>2</v>
       </c>
-      <c r="F75" t="s">
-        <v>71</v>
-      </c>
-      <c r="G75">
+      <c r="F75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C76" t="s">
-        <v>446</v>
-      </c>
-      <c r="D76" t="s">
-        <v>513</v>
-      </c>
-      <c r="E76">
+      <c r="C76" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E76" s="1">
         <v>3</v>
       </c>
-      <c r="F76" t="s">
-        <v>71</v>
-      </c>
-      <c r="G76">
+      <c r="F76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C77" t="s">
-        <v>446</v>
-      </c>
-      <c r="D77" t="s">
-        <v>513</v>
-      </c>
-      <c r="E77">
+      <c r="C77" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E77" s="1">
         <v>5</v>
       </c>
-      <c r="F77" t="s">
-        <v>71</v>
-      </c>
-      <c r="G77">
+      <c r="F77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C78" t="s">
-        <v>446</v>
-      </c>
-      <c r="D78" t="s">
-        <v>513</v>
-      </c>
-      <c r="E78">
+      <c r="C78" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E78" s="1">
         <v>6</v>
       </c>
-      <c r="F78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G78">
+      <c r="F78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C79" t="s">
-        <v>446</v>
-      </c>
-      <c r="D79" t="s">
-        <v>513</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>71</v>
-      </c>
-      <c r="G79">
+      <c r="C79" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C80" t="s">
-        <v>446</v>
-      </c>
-      <c r="D80" t="s">
-        <v>513</v>
-      </c>
-      <c r="E80">
+      <c r="C80" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E80" s="1">
         <v>7</v>
       </c>
-      <c r="F80" t="s">
-        <v>71</v>
-      </c>
-      <c r="G80">
+      <c r="F80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G80" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C81" t="s">
-        <v>446</v>
-      </c>
-      <c r="D81" t="s">
-        <v>513</v>
-      </c>
-      <c r="E81">
+      <c r="C81" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E81" s="1">
         <v>8</v>
       </c>
-      <c r="F81" t="s">
-        <v>71</v>
-      </c>
-      <c r="G81">
+      <c r="F81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C82" t="s">
-        <v>446</v>
-      </c>
-      <c r="D82" t="s">
-        <v>513</v>
-      </c>
-      <c r="E82">
+      <c r="C82" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E82" s="1">
         <v>2</v>
       </c>
-      <c r="F82" t="s">
-        <v>71</v>
-      </c>
-      <c r="G82">
+      <c r="F82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C83" t="s">
-        <v>446</v>
-      </c>
-      <c r="D83" t="s">
-        <v>513</v>
-      </c>
-      <c r="E83">
+      <c r="C83" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E83" s="1">
         <v>3</v>
       </c>
-      <c r="F83" t="s">
-        <v>71</v>
-      </c>
-      <c r="G83">
+      <c r="F83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C84" t="s">
-        <v>446</v>
-      </c>
-      <c r="D84" t="s">
-        <v>513</v>
-      </c>
-      <c r="E84">
+      <c r="C84" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E84" s="1">
         <v>5</v>
       </c>
-      <c r="F84" t="s">
-        <v>71</v>
-      </c>
-      <c r="G84">
+      <c r="F84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G84" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C85" t="s">
-        <v>446</v>
-      </c>
-      <c r="D85" t="s">
-        <v>513</v>
-      </c>
-      <c r="E85">
+      <c r="C85" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E85" s="1">
         <v>6</v>
       </c>
-      <c r="F85" t="s">
-        <v>71</v>
-      </c>
-      <c r="G85">
+      <c r="F85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C86" t="s">
-        <v>446</v>
-      </c>
-      <c r="D86" t="s">
-        <v>513</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>71</v>
-      </c>
-      <c r="G86">
+      <c r="C86" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G86" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C87" t="s">
-        <v>446</v>
-      </c>
-      <c r="D87" t="s">
-        <v>513</v>
-      </c>
-      <c r="E87">
+      <c r="C87" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E87" s="1">
         <v>4</v>
       </c>
-      <c r="F87" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87">
+      <c r="F87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G87" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C88" t="s">
-        <v>446</v>
-      </c>
-      <c r="D88" t="s">
-        <v>513</v>
-      </c>
-      <c r="E88">
+      <c r="C88" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E88" s="1">
         <v>7</v>
       </c>
-      <c r="F88" t="s">
-        <v>71</v>
-      </c>
-      <c r="G88">
+      <c r="F88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C89" t="s">
-        <v>446</v>
-      </c>
-      <c r="D89" t="s">
-        <v>513</v>
-      </c>
-      <c r="E89">
+      <c r="C89" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E89" s="1">
         <v>8</v>
       </c>
-      <c r="F89" t="s">
-        <v>71</v>
-      </c>
-      <c r="G89">
+      <c r="F89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G89" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C90" t="s">
-        <v>446</v>
-      </c>
-      <c r="D90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E90">
+      <c r="C90" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E90" s="1">
         <v>2</v>
       </c>
-      <c r="F90" t="s">
-        <v>71</v>
-      </c>
-      <c r="G90">
+      <c r="F90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C91" t="s">
-        <v>446</v>
-      </c>
-      <c r="D91" t="s">
-        <v>513</v>
-      </c>
-      <c r="E91">
+      <c r="C91" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E91" s="1">
         <v>3</v>
       </c>
-      <c r="F91" t="s">
-        <v>71</v>
-      </c>
-      <c r="G91">
+      <c r="F91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G91" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C92" t="s">
-        <v>446</v>
-      </c>
-      <c r="D92" t="s">
-        <v>513</v>
-      </c>
-      <c r="E92">
+      <c r="C92" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E92" s="1">
         <v>5</v>
       </c>
-      <c r="F92" t="s">
-        <v>71</v>
-      </c>
-      <c r="G92">
+      <c r="F92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C93" t="s">
-        <v>446</v>
-      </c>
-      <c r="D93" t="s">
-        <v>513</v>
-      </c>
-      <c r="E93">
+      <c r="C93" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E93" s="1">
         <v>6</v>
       </c>
-      <c r="F93" t="s">
-        <v>71</v>
-      </c>
-      <c r="G93">
+      <c r="F93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G93" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -3962,7 +4311,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -3985,7 +4334,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -4008,7 +4357,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -4031,7 +4380,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -4054,7 +4403,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -4077,973 +4426,1099 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D100" t="s">
-        <v>513</v>
-      </c>
-      <c r="E100">
+      <c r="D100" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E100" s="1">
         <v>6</v>
       </c>
-      <c r="F100" t="s">
-        <v>71</v>
-      </c>
-      <c r="G100">
+      <c r="F100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D101" t="s">
-        <v>513</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s">
-        <v>71</v>
-      </c>
-      <c r="G101">
+      <c r="D101" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D102" t="s">
-        <v>513</v>
-      </c>
-      <c r="E102">
+      <c r="D102" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E102" s="1">
         <v>10</v>
       </c>
-      <c r="F102" t="s">
-        <v>71</v>
-      </c>
-      <c r="G102">
+      <c r="F102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G102" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D103" t="s">
-        <v>513</v>
-      </c>
-      <c r="E103">
+      <c r="D103" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E103" s="1">
         <v>11</v>
       </c>
-      <c r="F103" t="s">
-        <v>71</v>
-      </c>
-      <c r="G103">
+      <c r="F103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G103" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D104" t="s">
-        <v>513</v>
-      </c>
-      <c r="E104">
+      <c r="D104" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E104" s="1">
         <v>12</v>
       </c>
-      <c r="F104" t="s">
-        <v>71</v>
-      </c>
-      <c r="G104">
+      <c r="F104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G104" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D105" t="s">
-        <v>513</v>
-      </c>
-      <c r="E105">
+      <c r="D105" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E105" s="1">
         <v>13</v>
       </c>
-      <c r="F105" t="s">
-        <v>71</v>
-      </c>
-      <c r="G105">
+      <c r="F105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G105" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D106" t="s">
-        <v>513</v>
-      </c>
-      <c r="E106">
+      <c r="D106" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E106" s="1">
         <v>2</v>
       </c>
-      <c r="F106" t="s">
-        <v>71</v>
-      </c>
-      <c r="G106">
+      <c r="F106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G106" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D107" t="s">
-        <v>513</v>
-      </c>
-      <c r="E107">
+      <c r="D107" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E107" s="1">
         <v>3</v>
       </c>
-      <c r="F107" t="s">
-        <v>71</v>
-      </c>
-      <c r="G107">
+      <c r="F107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G107" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D108" t="s">
-        <v>513</v>
-      </c>
-      <c r="E108">
+      <c r="D108" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E108" s="1">
         <v>4</v>
       </c>
-      <c r="F108" t="s">
-        <v>71</v>
-      </c>
-      <c r="G108">
+      <c r="F108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G108" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D109" t="s">
-        <v>513</v>
-      </c>
-      <c r="E109">
+      <c r="D109" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E109" s="1">
         <v>5</v>
       </c>
-      <c r="F109" t="s">
-        <v>71</v>
-      </c>
-      <c r="G109">
+      <c r="F109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G109" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D110" t="s">
-        <v>513</v>
-      </c>
-      <c r="E110">
+      <c r="D110" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E110" s="1">
         <v>6</v>
       </c>
-      <c r="F110" t="s">
-        <v>71</v>
-      </c>
-      <c r="G110">
+      <c r="F110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G110" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D111" t="s">
-        <v>513</v>
-      </c>
-      <c r="E111">
+      <c r="D111" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E111" s="1">
         <v>7</v>
       </c>
-      <c r="F111" t="s">
-        <v>71</v>
-      </c>
-      <c r="G111">
+      <c r="F111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G111" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D112" t="s">
-        <v>513</v>
-      </c>
-      <c r="E112">
+      <c r="D112" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E112" s="1">
         <v>8</v>
       </c>
-      <c r="F112" t="s">
-        <v>71</v>
-      </c>
-      <c r="G112">
+      <c r="F112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G112" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D113" t="s">
-        <v>513</v>
-      </c>
-      <c r="E113">
+      <c r="D113" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E113" s="1">
         <v>9</v>
       </c>
-      <c r="F113" t="s">
-        <v>71</v>
-      </c>
-      <c r="G113">
+      <c r="F113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G113" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D114" t="s">
-        <v>513</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
-        <v>71</v>
-      </c>
-      <c r="G114">
+      <c r="D114" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G114" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D115" t="s">
-        <v>513</v>
-      </c>
-      <c r="E115">
+      <c r="D115" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E115" s="1">
         <v>5</v>
       </c>
-      <c r="F115" t="s">
-        <v>71</v>
-      </c>
-      <c r="G115">
+      <c r="F115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G115" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D116" t="s">
-        <v>513</v>
-      </c>
-      <c r="E116">
+      <c r="D116" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E116" s="1">
         <v>9</v>
       </c>
-      <c r="F116" t="s">
-        <v>71</v>
-      </c>
-      <c r="G116">
+      <c r="F116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G116" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D117" t="s">
-        <v>513</v>
-      </c>
-      <c r="E117">
+      <c r="D117" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E117" s="1">
         <v>10</v>
       </c>
-      <c r="F117" t="s">
-        <v>71</v>
-      </c>
-      <c r="G117">
+      <c r="F117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G117" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D118" t="s">
-        <v>513</v>
-      </c>
-      <c r="E118">
+      <c r="D118" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E118" s="1">
         <v>11</v>
       </c>
-      <c r="F118" t="s">
-        <v>71</v>
-      </c>
-      <c r="G118">
+      <c r="F118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G118" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D119" t="s">
-        <v>513</v>
-      </c>
-      <c r="E119">
+      <c r="D119" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E119" s="1">
         <v>12</v>
       </c>
-      <c r="F119" t="s">
-        <v>71</v>
-      </c>
-      <c r="G119">
+      <c r="F119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G119" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D120" t="s">
-        <v>513</v>
-      </c>
-      <c r="E120">
+      <c r="D120" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E120" s="1">
         <v>13</v>
       </c>
-      <c r="F120" t="s">
-        <v>71</v>
-      </c>
-      <c r="G120">
+      <c r="F120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D121" t="s">
-        <v>513</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>71</v>
-      </c>
-      <c r="G121">
+      <c r="D121" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G121" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D122" t="s">
-        <v>513</v>
-      </c>
-      <c r="E122">
+      <c r="D122" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E122" s="1">
         <v>2</v>
       </c>
-      <c r="F122" t="s">
-        <v>71</v>
-      </c>
-      <c r="G122">
+      <c r="F122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D123" t="s">
-        <v>513</v>
-      </c>
-      <c r="E123">
+      <c r="D123" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E123" s="1">
         <v>3</v>
       </c>
-      <c r="F123" t="s">
-        <v>71</v>
-      </c>
-      <c r="G123">
+      <c r="F123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G123" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D124" t="s">
-        <v>513</v>
-      </c>
-      <c r="E124">
+      <c r="D124" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E124" s="1">
         <v>4</v>
       </c>
-      <c r="F124" t="s">
-        <v>71</v>
-      </c>
-      <c r="G124">
+      <c r="F124" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G124" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D125" t="s">
-        <v>513</v>
-      </c>
-      <c r="E125">
+      <c r="D125" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E125" s="1">
         <v>5</v>
       </c>
-      <c r="F125" t="s">
-        <v>71</v>
-      </c>
-      <c r="G125">
+      <c r="F125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G125" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D126" t="s">
-        <v>513</v>
-      </c>
-      <c r="E126">
+      <c r="D126" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E126" s="1">
         <v>6</v>
       </c>
-      <c r="F126" t="s">
-        <v>71</v>
-      </c>
-      <c r="G126">
+      <c r="F126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G126" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D127" t="s">
-        <v>513</v>
-      </c>
-      <c r="E127">
+      <c r="D127" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E127" s="1">
         <v>7</v>
       </c>
-      <c r="F127" t="s">
-        <v>71</v>
-      </c>
-      <c r="G127">
+      <c r="F127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G127" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D128" t="s">
-        <v>513</v>
-      </c>
-      <c r="E128">
+      <c r="D128" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E128" s="1">
         <v>8</v>
       </c>
-      <c r="F128" t="s">
-        <v>71</v>
-      </c>
-      <c r="G128">
+      <c r="F128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G128" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D129" t="s">
-        <v>513</v>
-      </c>
-      <c r="E129">
+      <c r="D129" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E129" s="1">
         <v>9</v>
       </c>
-      <c r="F129" t="s">
-        <v>71</v>
-      </c>
-      <c r="G129">
+      <c r="F129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G129" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D130" t="s">
-        <v>513</v>
-      </c>
-      <c r="E130">
+      <c r="D130" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E130" s="1">
         <v>10</v>
       </c>
-      <c r="F130" t="s">
-        <v>71</v>
-      </c>
-      <c r="G130">
+      <c r="F130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G130" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D131" t="s">
-        <v>513</v>
-      </c>
-      <c r="E131">
+      <c r="D131" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E131" s="1">
         <v>11</v>
       </c>
-      <c r="F131" t="s">
-        <v>71</v>
-      </c>
-      <c r="G131">
+      <c r="F131" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G131" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D132" t="s">
-        <v>513</v>
-      </c>
-      <c r="E132">
+      <c r="D132" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E132" s="1">
         <v>12</v>
       </c>
-      <c r="F132" t="s">
-        <v>71</v>
-      </c>
-      <c r="G132">
+      <c r="F132" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D133" t="s">
-        <v>513</v>
-      </c>
-      <c r="E133">
+      <c r="D133" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E133" s="1">
         <v>13</v>
       </c>
-      <c r="F133" t="s">
-        <v>71</v>
-      </c>
-      <c r="G133">
+      <c r="F133" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G133" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D134" t="s">
-        <v>513</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134" t="s">
-        <v>71</v>
-      </c>
-      <c r="G134">
+      <c r="D134" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G134" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D135" t="s">
-        <v>513</v>
-      </c>
-      <c r="E135">
+      <c r="D135" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E135" s="1">
         <v>3</v>
       </c>
-      <c r="F135" t="s">
-        <v>71</v>
-      </c>
-      <c r="G135">
+      <c r="F135" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G135" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D136" t="s">
-        <v>513</v>
-      </c>
-      <c r="E136">
+      <c r="D136" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E136" s="1">
         <v>4</v>
       </c>
-      <c r="F136" t="s">
-        <v>71</v>
-      </c>
-      <c r="G136">
+      <c r="F136" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G136" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D137" t="s">
-        <v>513</v>
-      </c>
-      <c r="E137">
+      <c r="D137" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E137" s="1">
         <v>5</v>
       </c>
-      <c r="F137" t="s">
-        <v>71</v>
-      </c>
-      <c r="G137">
+      <c r="F137" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G137" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D138" t="s">
-        <v>513</v>
-      </c>
-      <c r="E138">
+      <c r="D138" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E138" s="1">
         <v>6</v>
       </c>
-      <c r="F138" t="s">
-        <v>71</v>
-      </c>
-      <c r="G138">
+      <c r="F138" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G138" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D139" t="s">
-        <v>513</v>
-      </c>
-      <c r="E139">
+      <c r="D139" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E139" s="1">
         <v>7</v>
       </c>
-      <c r="F139" t="s">
-        <v>71</v>
-      </c>
-      <c r="G139">
+      <c r="F139" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G139" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D140" t="s">
-        <v>513</v>
-      </c>
-      <c r="E140">
+      <c r="D140" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E140" s="1">
         <v>8</v>
       </c>
-      <c r="F140" t="s">
-        <v>71</v>
-      </c>
-      <c r="G140">
+      <c r="F140" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G140" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D141" t="s">
-        <v>513</v>
-      </c>
-      <c r="E141">
+      <c r="D141" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E141" s="1">
         <v>9</v>
       </c>
-      <c r="F141" t="s">
-        <v>71</v>
-      </c>
-      <c r="G141">
+      <c r="F141" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G141" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>202</v>
       </c>
@@ -5065,8 +5540,11 @@
       <c r="G142" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>211</v>
       </c>
@@ -5088,8 +5566,11 @@
       <c r="G143" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>212</v>
       </c>
@@ -5111,8 +5592,11 @@
       <c r="G144" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>213</v>
       </c>
@@ -5134,8 +5618,11 @@
       <c r="G145" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>214</v>
       </c>
@@ -5157,8 +5644,11 @@
       <c r="G146" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>215</v>
       </c>
@@ -5180,8 +5670,11 @@
       <c r="G147" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>216</v>
       </c>
@@ -5203,8 +5696,11 @@
       <c r="G148" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>217</v>
       </c>
@@ -5226,8 +5722,11 @@
       <c r="G149" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>218</v>
       </c>
@@ -5249,8 +5748,11 @@
       <c r="G150" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>219</v>
       </c>
@@ -5272,8 +5774,11 @@
       <c r="G151" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>220</v>
       </c>
@@ -5295,8 +5800,11 @@
       <c r="G152" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>221</v>
       </c>
@@ -5318,8 +5826,11 @@
       <c r="G153" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>222</v>
       </c>
@@ -5341,8 +5852,11 @@
       <c r="G154" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>223</v>
       </c>
@@ -5364,8 +5878,11 @@
       <c r="G155" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>224</v>
       </c>
@@ -5387,8 +5904,11 @@
       <c r="G156" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>225</v>
       </c>
@@ -5410,8 +5930,11 @@
       <c r="G157" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>226</v>
       </c>
@@ -5433,8 +5956,11 @@
       <c r="G158" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>227</v>
       </c>
@@ -5456,8 +5982,11 @@
       <c r="G159" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>228</v>
       </c>
@@ -5479,8 +6008,11 @@
       <c r="G160" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>229</v>
       </c>
@@ -5502,8 +6034,11 @@
       <c r="G161" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>230</v>
       </c>
@@ -5525,8 +6060,11 @@
       <c r="G162" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>231</v>
       </c>
@@ -5548,8 +6086,11 @@
       <c r="G163" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>232</v>
       </c>
@@ -5571,8 +6112,11 @@
       <c r="G164" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>233</v>
       </c>
@@ -5594,8 +6138,11 @@
       <c r="G165" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>234</v>
       </c>
@@ -5617,8 +6164,11 @@
       <c r="G166" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>235</v>
       </c>
@@ -5640,8 +6190,11 @@
       <c r="G167" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>236</v>
       </c>
@@ -5663,8 +6216,11 @@
       <c r="G168" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>237</v>
       </c>
@@ -5686,8 +6242,11 @@
       <c r="G169" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -5709,8 +6268,11 @@
       <c r="G170" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>239</v>
       </c>
@@ -5732,8 +6294,11 @@
       <c r="G171" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>240</v>
       </c>
@@ -5755,8 +6320,11 @@
       <c r="G172" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>241</v>
       </c>
@@ -5778,8 +6346,11 @@
       <c r="G173" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>242</v>
       </c>
@@ -5801,8 +6372,11 @@
       <c r="G174" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>243</v>
       </c>
@@ -5824,8 +6398,11 @@
       <c r="G175" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>244</v>
       </c>
@@ -5847,8 +6424,11 @@
       <c r="G176" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>245</v>
       </c>
@@ -5870,8 +6450,11 @@
       <c r="G177" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>246</v>
       </c>
@@ -5893,8 +6476,11 @@
       <c r="G178" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>247</v>
       </c>
@@ -5916,8 +6502,11 @@
       <c r="G179" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>248</v>
       </c>
@@ -5939,8 +6528,11 @@
       <c r="G180" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>249</v>
       </c>
@@ -5962,8 +6554,11 @@
       <c r="G181" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>250</v>
       </c>
@@ -5985,8 +6580,11 @@
       <c r="G182" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>251</v>
       </c>
@@ -6008,8 +6606,11 @@
       <c r="G183" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>252</v>
       </c>
@@ -6031,8 +6632,11 @@
       <c r="G184" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>253</v>
       </c>
@@ -6054,8 +6658,11 @@
       <c r="G185" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>254</v>
       </c>
@@ -6077,8 +6684,11 @@
       <c r="G186" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>255</v>
       </c>
@@ -6100,8 +6710,11 @@
       <c r="G187" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>256</v>
       </c>
@@ -6123,8 +6736,11 @@
       <c r="G188" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>262</v>
       </c>
@@ -6146,8 +6762,11 @@
       <c r="G189" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>263</v>
       </c>
@@ -6169,8 +6788,11 @@
       <c r="G190" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>264</v>
       </c>
@@ -6192,8 +6814,11 @@
       <c r="G191" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>265</v>
       </c>
@@ -6215,8 +6840,11 @@
       <c r="G192" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>266</v>
       </c>
@@ -6238,8 +6866,11 @@
       <c r="G193" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>267</v>
       </c>
@@ -6261,8 +6892,11 @@
       <c r="G194" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>270</v>
       </c>
@@ -6284,8 +6918,11 @@
       <c r="G195" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>271</v>
       </c>
@@ -6308,7 +6945,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>272</v>
       </c>
@@ -6331,7 +6968,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>279</v>
       </c>
@@ -6354,7 +6991,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>280</v>
       </c>
@@ -6377,7 +7014,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>281</v>
       </c>
@@ -6400,7 +7037,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>282</v>
       </c>
@@ -6423,7 +7060,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>288</v>
       </c>
@@ -6446,7 +7083,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>289</v>
       </c>
@@ -6469,7 +7106,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>290</v>
       </c>
@@ -6492,7 +7129,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>297</v>
       </c>
@@ -6515,7 +7152,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>298</v>
       </c>
@@ -6538,7 +7175,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>299</v>
       </c>
@@ -6561,7 +7198,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>300</v>
       </c>
@@ -6584,7 +7221,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>306</v>
       </c>
@@ -6607,7 +7244,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>307</v>
       </c>
@@ -6630,7 +7267,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>308</v>
       </c>
@@ -6653,7 +7290,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>312</v>
       </c>
@@ -6676,7 +7313,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>313</v>
       </c>
@@ -6699,7 +7336,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>314</v>
       </c>
@@ -6722,7 +7359,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>315</v>
       </c>
@@ -6745,7 +7382,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>321</v>
       </c>
@@ -6768,7 +7405,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>322</v>
       </c>
@@ -6791,582 +7428,657 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E218" s="2">
+      <c r="C218" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E218" s="1">
         <v>8</v>
       </c>
-      <c r="F218" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G218" s="2">
+      <c r="F218" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G218" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+      <c r="I218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E219" s="2">
+      <c r="C219" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E219" s="1">
         <v>11</v>
       </c>
-      <c r="F219" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G219" s="2">
+      <c r="F219" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G219" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+      <c r="I219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E220" s="2">
+      <c r="C220" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E220" s="1">
         <v>2</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G220" s="2">
+      <c r="F220" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G220" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+      <c r="I220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E221" s="2">
+      <c r="C221" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E221" s="1">
         <v>3</v>
       </c>
-      <c r="F221" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G221" s="2">
+      <c r="F221" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G221" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+      <c r="I221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E222" s="2">
+      <c r="C222" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E222" s="1">
         <v>5</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G222" s="2">
+      <c r="F222" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G222" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E223" s="2">
+      <c r="C223" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E223" s="1">
         <v>7</v>
       </c>
-      <c r="F223" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G223" s="2">
+      <c r="F223" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G223" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E224" s="2">
+      <c r="C224" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E224" s="1">
         <v>9</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G224" s="2">
+      <c r="F224" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G224" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E225" s="2">
+      <c r="C225" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E225" s="1">
         <v>10</v>
       </c>
-      <c r="F225" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G225" s="2">
+      <c r="F225" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G225" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+      <c r="I225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E226" s="2">
+      <c r="C226" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E226" s="1">
         <v>2</v>
       </c>
-      <c r="F226" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G226" s="2">
+      <c r="F226" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G226" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+      <c r="I226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E227" s="2">
+      <c r="C227" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E227" s="1">
         <v>6</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G227" s="2">
+      <c r="F227" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G227" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+      <c r="I227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E228" s="2">
+      <c r="C228" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E228" s="1">
         <v>8</v>
       </c>
-      <c r="F228" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G228" s="2">
+      <c r="F228" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G228" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E229" s="2">
+      <c r="C229" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E229" s="1">
         <v>3</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G229" s="2">
+      <c r="F229" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G229" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+      <c r="I229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E230" s="2">
-        <v>1</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G230" s="2">
+      <c r="C230" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G230" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+      <c r="I230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E231" s="2">
+      <c r="C231" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E231" s="1">
         <v>11</v>
       </c>
-      <c r="F231" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G231" s="2">
+      <c r="F231" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G231" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+      <c r="I231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E232" s="2">
+      <c r="C232" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E232" s="1">
         <v>3</v>
       </c>
-      <c r="F232" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G232" s="2">
+      <c r="F232" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G232" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+      <c r="I232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E233" s="2">
+      <c r="C233" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E233" s="1">
         <v>5</v>
       </c>
-      <c r="F233" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G233" s="2">
+      <c r="F233" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G233" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E234" s="2">
+      <c r="C234" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E234" s="1">
         <v>7</v>
       </c>
-      <c r="F234" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G234" s="2">
+      <c r="F234" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G234" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
+      <c r="I234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E235" s="2">
+      <c r="C235" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E235" s="1">
         <v>9</v>
       </c>
-      <c r="F235" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G235" s="2">
+      <c r="F235" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G235" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
+      <c r="I235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E236" s="2">
-        <v>1</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G236" s="2">
+      <c r="C236" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G236" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
+      <c r="I236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E237" s="2">
+      <c r="C237" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E237" s="1">
         <v>11</v>
       </c>
-      <c r="F237" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G237" s="2">
+      <c r="F237" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G237" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
+      <c r="I237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E238" s="2">
+      <c r="C238" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E238" s="1">
         <v>3</v>
       </c>
-      <c r="F238" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G238" s="2">
+      <c r="F238" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G238" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
+      <c r="I238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E239" s="2">
+      <c r="C239" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E239" s="1">
         <v>4</v>
       </c>
-      <c r="F239" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G239" s="2">
+      <c r="F239" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G239" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
+      <c r="I239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E240" s="2">
+      <c r="C240" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E240" s="1">
         <v>5</v>
       </c>
-      <c r="F240" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G240" s="2">
+      <c r="F240" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G240" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
+      <c r="I240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E241" s="2">
+      <c r="C241" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E241" s="1">
         <v>7</v>
       </c>
-      <c r="F241" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G241" s="2">
+      <c r="F241" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G241" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
+      <c r="I241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E242" s="2">
+      <c r="C242" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E242" s="1">
         <v>9</v>
       </c>
-      <c r="F242" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G242" s="2">
+      <c r="F242" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G242" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>371</v>
       </c>
@@ -7388,31 +8100,37 @@
       <c r="G243" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
+      <c r="I243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E244" s="2">
-        <v>1</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G244" s="2">
+      <c r="C244" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G244" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>375</v>
       </c>
@@ -7434,8 +8152,11 @@
       <c r="G245" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>377</v>
       </c>
@@ -7457,8 +8178,11 @@
       <c r="G246" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>378</v>
       </c>
@@ -7480,8 +8204,11 @@
       <c r="G247" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>381</v>
       </c>
@@ -7503,8 +8230,11 @@
       <c r="G248" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>382</v>
       </c>
@@ -7526,8 +8256,11 @@
       <c r="G249" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>383</v>
       </c>
@@ -7549,8 +8282,11 @@
       <c r="G250" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>384</v>
       </c>
@@ -7572,8 +8308,11 @@
       <c r="G251" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>385</v>
       </c>
@@ -7595,123 +8334,141 @@
       <c r="G252" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
+      <c r="I252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E253" s="2">
+      <c r="C253" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E253" s="1">
         <v>10</v>
       </c>
-      <c r="F253" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G253" s="2">
+      <c r="F253" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G253" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
+      <c r="I253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E254" s="2">
+      <c r="C254" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E254" s="1">
         <v>2</v>
       </c>
-      <c r="F254" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G254" s="2">
+      <c r="F254" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G254" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
+      <c r="I254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E255" s="2">
+      <c r="C255" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E255" s="1">
         <v>4</v>
       </c>
-      <c r="F255" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G255" s="2">
+      <c r="F255" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G255" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
+      <c r="I255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E256" s="2">
+      <c r="C256" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E256" s="1">
         <v>6</v>
       </c>
-      <c r="F256" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G256" s="2">
+      <c r="F256" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G256" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
+      <c r="I256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E257" s="2">
+      <c r="C257" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E257" s="1">
         <v>8</v>
       </c>
-      <c r="F257" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G257" s="2">
+      <c r="F257" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G257" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>396</v>
       </c>
@@ -7733,8 +8490,11 @@
       <c r="G258" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>397</v>
       </c>
@@ -7756,8 +8516,11 @@
       <c r="G259" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>398</v>
       </c>
@@ -7779,8 +8542,11 @@
       <c r="G260" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>399</v>
       </c>
@@ -7802,8 +8568,11 @@
       <c r="G261" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>400</v>
       </c>
@@ -7825,8 +8594,11 @@
       <c r="G262" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>401</v>
       </c>
@@ -7848,8 +8620,11 @@
       <c r="G263" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>402</v>
       </c>
@@ -7871,8 +8646,11 @@
       <c r="G264" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>403</v>
       </c>
@@ -7894,8 +8672,11 @@
       <c r="G265" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>404</v>
       </c>
@@ -7917,8 +8698,11 @@
       <c r="G266" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>405</v>
       </c>
@@ -7940,8 +8724,11 @@
       <c r="G267" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>412</v>
       </c>
@@ -7964,7 +8751,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>413</v>
       </c>
@@ -7987,7 +8774,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>426</v>
       </c>
@@ -8010,7 +8797,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>427</v>
       </c>
@@ -8033,7 +8820,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>429</v>
       </c>
@@ -9393,47 +10180,55 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C337" t="s">
-        <v>446</v>
-      </c>
-      <c r="D337" t="s">
+      <c r="C337" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D337" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F337" t="s">
+      <c r="E337" s="2"/>
+      <c r="F337" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G337">
+      <c r="G337" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="H337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C338" t="s">
-        <v>446</v>
-      </c>
-      <c r="D338" t="s">
+      <c r="C338" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D338" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F338" t="s">
+      <c r="E338" s="2"/>
+      <c r="F338" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G338">
+      <c r="G338" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>150</v>
       </c>
@@ -9456,7 +10251,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>151</v>
       </c>
@@ -9479,7 +10274,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>152</v>
       </c>
@@ -9502,7 +10297,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>153</v>
       </c>
@@ -9525,7 +10320,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>154</v>
       </c>
@@ -9548,7 +10343,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>156</v>
       </c>
@@ -9571,7 +10366,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>157</v>
       </c>
@@ -9594,7 +10389,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>162</v>
       </c>
@@ -9617,7 +10412,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>163</v>
       </c>
@@ -9640,7 +10435,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>164</v>
       </c>
@@ -9663,7 +10458,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>165</v>
       </c>
@@ -9686,7 +10481,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>166</v>
       </c>
@@ -9709,7 +10504,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>181</v>
       </c>
@@ -9732,7 +10527,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>182</v>
       </c>
@@ -10123,7 +10918,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>303</v>
       </c>
@@ -10146,7 +10941,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>304</v>
       </c>
@@ -10169,7 +10964,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>310</v>
       </c>
@@ -10192,7 +10987,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>311</v>
       </c>
@@ -10215,7 +11010,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>317</v>
       </c>
@@ -10238,7 +11033,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>318</v>
       </c>
@@ -10261,7 +11056,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>319</v>
       </c>
@@ -10284,7 +11079,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>320</v>
       </c>
@@ -10307,7 +11102,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>324</v>
       </c>
@@ -10330,7 +11125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>325</v>
       </c>
@@ -10353,7 +11148,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>326</v>
       </c>
@@ -10376,214 +11171,273 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C380" t="s">
-        <v>446</v>
-      </c>
-      <c r="D380" t="s">
+      <c r="C380" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D380" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F380" t="s">
+      <c r="E380" s="2"/>
+      <c r="F380" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G380">
+      <c r="G380" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="H380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C381" t="s">
+      <c r="B381" s="2"/>
+      <c r="C381" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F381" t="s">
+      <c r="E381" s="2"/>
+      <c r="F381" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G381">
+      <c r="G381" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="H381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C382" t="s">
+      <c r="B382" s="2"/>
+      <c r="C382" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F382" t="s">
+      <c r="E382" s="2"/>
+      <c r="F382" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G382">
+      <c r="G382" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="H382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C383" t="s">
+      <c r="B383" s="2"/>
+      <c r="C383" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F383" t="s">
+      <c r="E383" s="2"/>
+      <c r="F383" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G383">
+      <c r="G383" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="H383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C384" t="s">
+      <c r="B384" s="2"/>
+      <c r="C384" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F384" t="s">
+      <c r="E384" s="2"/>
+      <c r="F384" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G384">
+      <c r="G384" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="H384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C385" t="s">
+      <c r="B385" s="2"/>
+      <c r="C385" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F385" t="s">
+      <c r="E385" s="2"/>
+      <c r="F385" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G385">
+      <c r="G385" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="H385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C386" t="s">
+      <c r="B386" s="2"/>
+      <c r="C386" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F386" t="s">
+      <c r="E386" s="2"/>
+      <c r="F386" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G386">
+      <c r="G386" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="H386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C387" t="s">
+      <c r="B387" s="2"/>
+      <c r="C387" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F387" t="s">
+      <c r="E387" s="2"/>
+      <c r="F387" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G387">
+      <c r="G387" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="H387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C388" t="s">
+      <c r="B388" s="2"/>
+      <c r="C388" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F388" t="s">
+      <c r="E388" s="2"/>
+      <c r="F388" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G388">
+      <c r="G388" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="H388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C389" t="s">
+      <c r="B389" s="2"/>
+      <c r="C389" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F389" t="s">
+      <c r="E389" s="2"/>
+      <c r="F389" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G389">
+      <c r="G389" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="H389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C390" t="s">
+      <c r="B390" s="2"/>
+      <c r="C390" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F390" t="s">
+      <c r="E390" s="2"/>
+      <c r="F390" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G390">
+      <c r="G390" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="H390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C391" t="s">
+      <c r="B391" s="2"/>
+      <c r="C391" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F391" t="s">
+      <c r="E391" s="2"/>
+      <c r="F391" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G391">
+      <c r="G391" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>45</v>
       </c>
@@ -10603,7 +11457,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>48</v>
       </c>
@@ -10623,7 +11477,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>49</v>
       </c>
@@ -10643,7 +11497,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>50</v>
       </c>
@@ -10663,7 +11517,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>51</v>
       </c>
@@ -10683,7 +11537,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>52</v>
       </c>
@@ -10703,7 +11557,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>53</v>
       </c>
@@ -10723,7 +11577,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>54</v>
       </c>
@@ -10743,7 +11597,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>55</v>
       </c>
@@ -10763,7 +11617,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>56</v>
       </c>
@@ -10783,7 +11637,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>57</v>
       </c>
@@ -10803,7 +11657,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>58</v>
       </c>
@@ -10823,7 +11677,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>59</v>
       </c>
@@ -10843,7 +11697,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>60</v>
       </c>
@@ -10863,7 +11717,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>61</v>
       </c>
@@ -10883,7 +11737,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>62</v>
       </c>
@@ -10903,7 +11757,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>63</v>
       </c>
@@ -10923,7 +11777,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>64</v>
       </c>
@@ -10943,7 +11797,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>128</v>
       </c>
@@ -10961,6 +11815,16 @@
       </c>
       <c r="G410">
         <v>2020</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H411">
+        <f>SUM(H1:H410)</f>
+        <v>82</v>
+      </c>
+      <c r="I411">
+        <f>SUM(I1:I410)</f>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/acs/Geographies for Kevin.xlsx
+++ b/acs/Geographies for Kevin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572B5406-2E58-47D3-ACFE-029856CCEF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741D3BD-D7CD-4C5B-B9ED-F4A556F9E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
@@ -1652,11 +1652,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1973,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
   <dimension ref="A1:I411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="J274" sqref="J274"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="C402" sqref="C402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,10 +2008,10 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>520</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6923,509 +6922,575 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C196" t="s">
-        <v>446</v>
-      </c>
-      <c r="D196" t="s">
-        <v>513</v>
-      </c>
-      <c r="E196">
+      <c r="C196" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E196" s="1">
         <v>4</v>
       </c>
-      <c r="F196" t="s">
-        <v>71</v>
-      </c>
-      <c r="G196">
+      <c r="F196" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G196" s="1">
         <v>2010</v>
       </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C197" t="s">
-        <v>446</v>
-      </c>
-      <c r="D197" t="s">
-        <v>513</v>
-      </c>
-      <c r="E197">
+      <c r="C197" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E197" s="1">
         <v>6</v>
       </c>
-      <c r="F197" t="s">
-        <v>71</v>
-      </c>
-      <c r="G197">
+      <c r="F197" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G197" s="1">
         <v>2010</v>
       </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C198" t="s">
-        <v>446</v>
-      </c>
-      <c r="D198" t="s">
-        <v>513</v>
-      </c>
-      <c r="E198">
-        <v>1</v>
-      </c>
-      <c r="F198" t="s">
-        <v>71</v>
-      </c>
-      <c r="G198">
+      <c r="C198" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G198" s="1">
         <v>2020</v>
       </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C199" t="s">
-        <v>446</v>
-      </c>
-      <c r="D199" t="s">
-        <v>513</v>
-      </c>
-      <c r="E199">
+      <c r="C199" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E199" s="1">
         <v>3</v>
       </c>
-      <c r="F199" t="s">
-        <v>71</v>
-      </c>
-      <c r="G199">
+      <c r="F199" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G199" s="1">
         <v>2020</v>
       </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C200" t="s">
-        <v>446</v>
-      </c>
-      <c r="D200" t="s">
-        <v>513</v>
-      </c>
-      <c r="E200">
+      <c r="C200" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E200" s="1">
         <v>5</v>
       </c>
-      <c r="F200" t="s">
-        <v>71</v>
-      </c>
-      <c r="G200">
+      <c r="F200" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G200" s="1">
         <v>2020</v>
       </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C201" t="s">
-        <v>446</v>
-      </c>
-      <c r="D201" t="s">
-        <v>513</v>
-      </c>
-      <c r="E201">
+      <c r="C201" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E201" s="1">
         <v>7</v>
       </c>
-      <c r="F201" t="s">
-        <v>71</v>
-      </c>
-      <c r="G201">
+      <c r="F201" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G201" s="1">
         <v>2020</v>
       </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C202" t="s">
-        <v>446</v>
-      </c>
-      <c r="D202" t="s">
-        <v>513</v>
-      </c>
-      <c r="E202">
+      <c r="C202" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E202" s="1">
         <v>2</v>
       </c>
-      <c r="F202" t="s">
-        <v>71</v>
-      </c>
-      <c r="G202">
+      <c r="F202" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G202" s="1">
         <v>2014</v>
       </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C203" t="s">
-        <v>446</v>
-      </c>
-      <c r="D203" t="s">
-        <v>513</v>
-      </c>
-      <c r="E203">
+      <c r="C203" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E203" s="1">
         <v>4</v>
       </c>
-      <c r="F203" t="s">
-        <v>71</v>
-      </c>
-      <c r="G203">
+      <c r="F203" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G203" s="1">
         <v>2014</v>
       </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C204" t="s">
-        <v>446</v>
-      </c>
-      <c r="D204" t="s">
-        <v>513</v>
-      </c>
-      <c r="E204">
+      <c r="C204" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E204" s="1">
         <v>6</v>
       </c>
-      <c r="F204" t="s">
-        <v>71</v>
-      </c>
-      <c r="G204">
+      <c r="F204" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G204" s="1">
         <v>2014</v>
       </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C205" t="s">
-        <v>446</v>
-      </c>
-      <c r="D205" t="s">
-        <v>513</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205" t="s">
-        <v>71</v>
-      </c>
-      <c r="G205">
+      <c r="C205" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G205" s="1">
         <v>2012</v>
       </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C206" t="s">
-        <v>446</v>
-      </c>
-      <c r="D206" t="s">
-        <v>513</v>
-      </c>
-      <c r="E206">
+      <c r="C206" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E206" s="1">
         <v>3</v>
       </c>
-      <c r="F206" t="s">
-        <v>71</v>
-      </c>
-      <c r="G206">
+      <c r="F206" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G206" s="1">
         <v>2012</v>
       </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C207" t="s">
-        <v>446</v>
-      </c>
-      <c r="D207" t="s">
-        <v>513</v>
-      </c>
-      <c r="E207">
+      <c r="C207" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E207" s="1">
         <v>5</v>
       </c>
-      <c r="F207" t="s">
-        <v>71</v>
-      </c>
-      <c r="G207">
+      <c r="F207" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G207" s="1">
         <v>2012</v>
       </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C208" t="s">
-        <v>446</v>
-      </c>
-      <c r="D208" t="s">
-        <v>513</v>
-      </c>
-      <c r="E208">
+      <c r="C208" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E208" s="1">
         <v>7</v>
       </c>
-      <c r="F208" t="s">
-        <v>71</v>
-      </c>
-      <c r="G208">
+      <c r="F208" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G208" s="1">
         <v>2012</v>
       </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C209" t="s">
-        <v>446</v>
-      </c>
-      <c r="D209" t="s">
-        <v>513</v>
-      </c>
-      <c r="E209">
+      <c r="C209" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E209" s="1">
         <v>2</v>
       </c>
-      <c r="F209" t="s">
-        <v>71</v>
-      </c>
-      <c r="G209">
+      <c r="F209" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G209" s="1">
         <v>2018</v>
       </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C210" t="s">
-        <v>446</v>
-      </c>
-      <c r="D210" t="s">
-        <v>513</v>
-      </c>
-      <c r="E210">
+      <c r="C210" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E210" s="1">
         <v>4</v>
       </c>
-      <c r="F210" t="s">
-        <v>71</v>
-      </c>
-      <c r="G210">
+      <c r="F210" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G210" s="1">
         <v>2018</v>
       </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C211" t="s">
-        <v>446</v>
-      </c>
-      <c r="D211" t="s">
-        <v>513</v>
-      </c>
-      <c r="E211">
+      <c r="C211" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E211" s="1">
         <v>6</v>
       </c>
-      <c r="F211" t="s">
-        <v>71</v>
-      </c>
-      <c r="G211">
+      <c r="F211" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G211" s="1">
         <v>2018</v>
       </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C212" t="s">
-        <v>446</v>
-      </c>
-      <c r="D212" t="s">
-        <v>513</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212" t="s">
-        <v>71</v>
-      </c>
-      <c r="G212">
+      <c r="C212" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G212" s="1">
         <v>2016</v>
       </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C213" t="s">
-        <v>446</v>
-      </c>
-      <c r="D213" t="s">
-        <v>513</v>
-      </c>
-      <c r="E213">
+      <c r="C213" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E213" s="1">
         <v>3</v>
       </c>
-      <c r="F213" t="s">
-        <v>71</v>
-      </c>
-      <c r="G213">
+      <c r="F213" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G213" s="1">
         <v>2016</v>
       </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C214" t="s">
-        <v>446</v>
-      </c>
-      <c r="D214" t="s">
-        <v>513</v>
-      </c>
-      <c r="E214">
+      <c r="C214" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E214" s="1">
         <v>5</v>
       </c>
-      <c r="F214" t="s">
-        <v>71</v>
-      </c>
-      <c r="G214">
+      <c r="F214" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G214" s="1">
         <v>2016</v>
       </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C215" t="s">
-        <v>446</v>
-      </c>
-      <c r="D215" t="s">
-        <v>513</v>
-      </c>
-      <c r="E215">
+      <c r="C215" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E215" s="1">
         <v>7</v>
       </c>
-      <c r="F215" t="s">
-        <v>71</v>
-      </c>
-      <c r="G215">
+      <c r="F215" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G215" s="1">
         <v>2016</v>
       </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C216" t="s">
-        <v>446</v>
-      </c>
-      <c r="D216" t="s">
-        <v>513</v>
-      </c>
-      <c r="E216">
+      <c r="C216" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E216" s="1">
         <v>4</v>
       </c>
-      <c r="F216" t="s">
-        <v>71</v>
-      </c>
-      <c r="G216">
+      <c r="F216" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G216" s="1">
         <v>2022</v>
       </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C217" t="s">
-        <v>446</v>
-      </c>
-      <c r="D217" t="s">
-        <v>513</v>
-      </c>
-      <c r="E217">
+      <c r="C217" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E217" s="1">
         <v>6</v>
       </c>
-      <c r="F217" t="s">
-        <v>71</v>
-      </c>
-      <c r="G217">
+      <c r="F217" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G217" s="1">
         <v>2022</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -10180,7 +10245,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>343</v>
       </c>
@@ -10204,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>355</v>
       </c>
@@ -10228,421 +10293,475 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E339">
+      <c r="E339" s="1">
         <v>2</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F339" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="I339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E340">
+      <c r="E340" s="1">
         <v>3</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F340" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="I340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E341">
+      <c r="E341" s="1">
         <v>4</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F341" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G341">
+      <c r="G341" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="I341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E342">
+      <c r="E342" s="1">
         <v>5</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F342" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G342">
+      <c r="G342" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="I342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E343">
+      <c r="E343" s="1">
         <v>6</v>
       </c>
-      <c r="F343" t="s">
+      <c r="F343" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G343">
+      <c r="G343" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="I343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E344">
+      <c r="E344" s="1">
         <v>2</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F344" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G344">
+      <c r="G344" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="I344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E345">
+      <c r="E345" s="1">
         <v>6</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F345" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="I345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E346">
-        <v>1</v>
-      </c>
-      <c r="F346" t="s">
+      <c r="E346" s="1">
+        <v>1</v>
+      </c>
+      <c r="F346" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="I346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E347">
+      <c r="E347" s="1">
         <v>2</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F347" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="I347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E348">
+      <c r="E348" s="1">
         <v>3</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F348" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="I348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="1">
         <v>5</v>
       </c>
-      <c r="F349" t="s">
+      <c r="F349" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="I349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E350">
+      <c r="E350" s="1">
         <v>6</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F350" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="I350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E351">
-        <v>1</v>
-      </c>
-      <c r="F351" t="s">
+      <c r="E351" s="1">
+        <v>1</v>
+      </c>
+      <c r="F351" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="I351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="1">
         <v>2</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F352" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="I352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E353">
+      <c r="E353" s="1">
         <v>3</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F353" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="I353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E354">
+      <c r="E354" s="1">
         <v>4</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F354" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="I354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E355">
+      <c r="E355" s="1">
         <v>5</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F355" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="I355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E356">
+      <c r="E356" s="1">
         <v>6</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F356" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>340</v>
       </c>
@@ -10665,7 +10784,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>341</v>
       </c>
@@ -10688,7 +10807,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>274</v>
       </c>
@@ -10711,7 +10830,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>283</v>
       </c>
@@ -10734,7 +10853,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>284</v>
       </c>
@@ -10757,7 +10876,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>285</v>
       </c>
@@ -10780,7 +10899,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>286</v>
       </c>
@@ -10803,7 +10922,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>292</v>
       </c>
@@ -10826,7 +10945,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>293</v>
       </c>
@@ -10849,7 +10968,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>294</v>
       </c>
@@ -10872,7 +10991,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>301</v>
       </c>
@@ -10895,7 +11014,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>302</v>
       </c>
@@ -11824,7 +11943,7 @@
       </c>
       <c r="I411">
         <f>SUM(I1:I410)</f>
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/acs/Geographies for Kevin.xlsx
+++ b/acs/Geographies for Kevin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741D3BD-D7CD-4C5B-B9ED-F4A556F9E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A69709-0AFF-48BA-8487-1D6A5A62C54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
   <dimension ref="A1:I411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="C402" sqref="C402"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="L326" sqref="L326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9255,7 +9255,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>414</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>415</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>416</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>418</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>419</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>420</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>421</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>422</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>423</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>425</v>
       </c>
@@ -9485,687 +9485,823 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C299" t="s">
+      <c r="B299" s="1"/>
+      <c r="C299" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E299">
-        <v>1</v>
-      </c>
-      <c r="F299" t="s">
+      <c r="E299" s="1">
+        <v>1</v>
+      </c>
+      <c r="F299" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="I299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C300" t="s">
+      <c r="B300" s="1"/>
+      <c r="C300" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E300">
+      <c r="E300" s="1">
         <v>10</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F300" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="I300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C301" t="s">
+      <c r="B301" s="1"/>
+      <c r="C301" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E301">
+      <c r="E301" s="1">
         <v>11</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F301" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="I301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C302" t="s">
+      <c r="B302" s="1"/>
+      <c r="C302" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E302">
+      <c r="E302" s="1">
         <v>12</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G302">
+      <c r="G302" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="I302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C303" t="s">
+      <c r="B303" s="1"/>
+      <c r="C303" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E303">
+      <c r="E303" s="1">
         <v>13</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G303">
+      <c r="G303" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="I303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C304" t="s">
+      <c r="B304" s="1"/>
+      <c r="C304" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E304">
+      <c r="E304" s="1">
         <v>14</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F304" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="I304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C305" t="s">
+      <c r="B305" s="1"/>
+      <c r="C305" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E305">
+      <c r="E305" s="1">
         <v>15</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="I305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C306" t="s">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="1">
         <v>16</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="I306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C307" t="s">
+      <c r="B307" s="1"/>
+      <c r="C307" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E307">
+      <c r="E307" s="1">
         <v>17</v>
       </c>
-      <c r="F307" t="s">
+      <c r="F307" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="I307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C308" t="s">
+      <c r="B308" s="1"/>
+      <c r="C308" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="1">
         <v>18</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F308" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="I308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C309" t="s">
+      <c r="B309" s="1"/>
+      <c r="C309" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="1">
         <v>19</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F309" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="I309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C310" t="s">
+      <c r="B310" s="1"/>
+      <c r="C310" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E310">
+      <c r="E310" s="1">
         <v>2</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F310" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="I310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C311" t="s">
+      <c r="B311" s="1"/>
+      <c r="C311" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E311">
+      <c r="E311" s="1">
         <v>20</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F311" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G311">
+      <c r="G311" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="I311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C312" t="s">
+      <c r="B312" s="1"/>
+      <c r="C312" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="1">
         <v>21</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F312" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G312">
+      <c r="G312" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="I312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C313" t="s">
+      <c r="B313" s="1"/>
+      <c r="C313" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E313">
+      <c r="E313" s="1">
         <v>22</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F313" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="I313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C314" t="s">
+      <c r="B314" s="1"/>
+      <c r="C314" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E314">
+      <c r="E314" s="1">
         <v>23</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F314" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="I314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C315" t="s">
+      <c r="B315" s="1"/>
+      <c r="C315" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="1">
         <v>24</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="I315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C316" t="s">
+      <c r="B316" s="1"/>
+      <c r="C316" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E316">
+      <c r="E316" s="1">
         <v>25</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F316" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="I316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C317" t="s">
+      <c r="B317" s="1"/>
+      <c r="C317" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E317">
+      <c r="E317" s="1">
         <v>26</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="I317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C318" t="s">
+      <c r="B318" s="1"/>
+      <c r="C318" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="1">
         <v>27</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="I318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C319" t="s">
+      <c r="B319" s="1"/>
+      <c r="C319" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E319">
+      <c r="E319" s="1">
         <v>28</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="I319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C320" t="s">
+      <c r="B320" s="1"/>
+      <c r="C320" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E320">
+      <c r="E320" s="1">
         <v>29</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F320" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G320">
+      <c r="G320" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="I320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C321" t="s">
+      <c r="B321" s="1"/>
+      <c r="C321" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="1">
         <v>30</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F321" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="I321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C322" t="s">
+      <c r="B322" s="1"/>
+      <c r="C322" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E322">
+      <c r="E322" s="1">
         <v>31</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="I322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C323" t="s">
+      <c r="B323" s="1"/>
+      <c r="C323" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="1">
         <v>32</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F323" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="I323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C324" t="s">
+      <c r="B324" s="1"/>
+      <c r="C324" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="1">
         <v>33</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F324" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="I324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C325" t="s">
+      <c r="B325" s="1"/>
+      <c r="C325" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="1">
         <v>34</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F325" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="I325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C326" t="s">
+      <c r="B326" s="1"/>
+      <c r="C326" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E326">
+      <c r="E326" s="1">
         <v>35</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F326" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="I326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C327" t="s">
+      <c r="B327" s="1"/>
+      <c r="C327" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="1">
         <v>39</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="I327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C328" t="s">
+      <c r="B328" s="1"/>
+      <c r="C328" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="1">
         <v>4</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F328" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="I328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C329" t="s">
+      <c r="B329" s="1"/>
+      <c r="C329" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E329">
+      <c r="E329" s="1">
         <v>5</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="I329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C330" t="s">
+      <c r="B330" s="1"/>
+      <c r="C330" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E330">
+      <c r="E330" s="1">
         <v>6</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="I330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C331" t="s">
+      <c r="B331" s="1"/>
+      <c r="C331" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E331">
+      <c r="E331" s="1">
         <v>7</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="I331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C332" t="s">
+      <c r="B332" s="1"/>
+      <c r="C332" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E332">
+      <c r="E332" s="1">
         <v>9</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>123</v>
       </c>
@@ -10185,7 +10321,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>125</v>
       </c>
@@ -10205,7 +10341,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>126</v>
       </c>
@@ -10225,7 +10361,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>127</v>
       </c>
@@ -11943,7 +12079,7 @@
       </c>
       <c r="I411">
         <f>SUM(I1:I410)</f>
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/acs/Geographies for Kevin.xlsx
+++ b/acs/Geographies for Kevin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A69709-0AFF-48BA-8487-1D6A5A62C54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B33D1CC-B227-4966-AB7F-88245BDA6F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
@@ -1970,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:J411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="L326" sqref="L326"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8794,48 +8794,48 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C268" t="s">
-        <v>446</v>
-      </c>
-      <c r="D268" t="s">
-        <v>513</v>
-      </c>
-      <c r="E268">
+      <c r="C268" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E268" s="1">
         <v>2</v>
       </c>
-      <c r="F268" t="s">
-        <v>71</v>
-      </c>
-      <c r="G268">
+      <c r="F268" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G268" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C269" t="s">
-        <v>446</v>
-      </c>
-      <c r="D269" t="s">
-        <v>513</v>
-      </c>
-      <c r="E269">
+      <c r="C269" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E269" s="1">
         <v>4</v>
       </c>
-      <c r="F269" t="s">
-        <v>71</v>
-      </c>
-      <c r="G269">
+      <c r="F269" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G269" s="1">
         <v>2020</v>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>431</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>432</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>433</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>434</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>435</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>436</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>120</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>130</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>131</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>328</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>330</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>334</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>332</v>
       </c>
@@ -9209,280 +9209,316 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C287" t="s">
-        <v>446</v>
-      </c>
-      <c r="D287" t="s">
+      <c r="C287" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="E287" s="1">
+        <v>1</v>
+      </c>
+      <c r="F287" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G287">
+      <c r="G287" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="I287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C288" t="s">
-        <v>446</v>
-      </c>
-      <c r="D288" t="s">
+      <c r="C288" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="1">
         <v>5</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F288" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G288">
+      <c r="G288" s="1">
         <v>2010</v>
       </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C289" t="s">
-        <v>446</v>
-      </c>
-      <c r="D289" t="s">
+      <c r="C289" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E289">
-        <v>1</v>
-      </c>
-      <c r="F289" t="s">
+      <c r="E289" s="1">
+        <v>1</v>
+      </c>
+      <c r="F289" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G289">
+      <c r="G289" s="1">
         <v>2014</v>
       </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C290" t="s">
-        <v>446</v>
-      </c>
-      <c r="D290" t="s">
+      <c r="C290" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="1">
         <v>3</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F290" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G290">
+      <c r="G290" s="1">
         <v>2014</v>
       </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C291" t="s">
-        <v>446</v>
-      </c>
-      <c r="D291" t="s">
+      <c r="C291" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="1">
         <v>5</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F291" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G291">
+      <c r="G291" s="1">
         <v>2014</v>
       </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C292" t="s">
-        <v>446</v>
-      </c>
-      <c r="D292" t="s">
+      <c r="C292" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="1">
         <v>2</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F292" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G292">
+      <c r="G292" s="1">
         <v>2012</v>
       </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C293" t="s">
-        <v>446</v>
-      </c>
-      <c r="D293" t="s">
+      <c r="C293" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D293" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E293">
+      <c r="E293" s="1">
         <v>4</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F293" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G293">
+      <c r="G293" s="1">
         <v>2012</v>
       </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C294" t="s">
-        <v>446</v>
-      </c>
-      <c r="D294" t="s">
+      <c r="C294" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D294" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="1">
         <v>6</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F294" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G294">
+      <c r="G294" s="1">
         <v>2012</v>
       </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C295" t="s">
-        <v>446</v>
-      </c>
-      <c r="D295" t="s">
+      <c r="C295" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295" t="s">
+      <c r="E295" s="1">
+        <v>1</v>
+      </c>
+      <c r="F295" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G295">
+      <c r="G295" s="1">
         <v>2018</v>
       </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C296" t="s">
-        <v>446</v>
-      </c>
-      <c r="D296" t="s">
+      <c r="C296" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E296">
+      <c r="E296" s="1">
         <v>3</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F296" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G296">
+      <c r="G296" s="1">
         <v>2018</v>
       </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C297" t="s">
-        <v>446</v>
-      </c>
-      <c r="D297" t="s">
+      <c r="C297" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E297">
+      <c r="E297" s="1">
         <v>5</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F297" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G297">
+      <c r="G297" s="1">
         <v>2018</v>
       </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C298" t="s">
-        <v>446</v>
-      </c>
-      <c r="D298" t="s">
+      <c r="C298" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E298">
+      <c r="E298" s="1">
         <v>2</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F298" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G298">
+      <c r="G298" s="1">
         <v>2016</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -11872,7 +11908,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>56</v>
       </c>
@@ -11892,7 +11928,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>57</v>
       </c>
@@ -11912,7 +11948,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>58</v>
       </c>
@@ -11932,7 +11968,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>59</v>
       </c>
@@ -11952,7 +11988,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>60</v>
       </c>
@@ -11972,7 +12008,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>61</v>
       </c>
@@ -11992,7 +12028,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>62</v>
       </c>
@@ -12012,7 +12048,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>63</v>
       </c>
@@ -12032,7 +12068,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>64</v>
       </c>
@@ -12052,7 +12088,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>128</v>
       </c>
@@ -12072,14 +12108,18 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H411">
         <f>SUM(H1:H410)</f>
         <v>82</v>
       </c>
       <c r="I411">
         <f>SUM(I1:I410)</f>
-        <v>244</v>
+        <v>256</v>
+      </c>
+      <c r="J411">
+        <f>(H411+I411)/409</f>
+        <v>0.82640586797066018</v>
       </c>
     </row>
   </sheetData>

--- a/acs/Geographies for Kevin.xlsx
+++ b/acs/Geographies for Kevin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B33D1CC-B227-4966-AB7F-88245BDA6F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7A246C-6A29-44C3-827E-DE1CE635ED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
   <dimension ref="A1:J411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="B273" sqref="B273"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="D294" sqref="D294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9220,7 +9220,7 @@
         <v>446</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E287" s="1">
         <v>1</v>
@@ -9246,7 +9246,7 @@
         <v>446</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E288" s="1">
         <v>5</v>
@@ -9272,7 +9272,7 @@
         <v>446</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E289" s="1">
         <v>1</v>
@@ -9298,7 +9298,7 @@
         <v>446</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E290" s="1">
         <v>3</v>
@@ -9324,7 +9324,7 @@
         <v>446</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E291" s="1">
         <v>5</v>
@@ -9350,7 +9350,7 @@
         <v>446</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E292" s="1">
         <v>2</v>
@@ -9376,7 +9376,7 @@
         <v>446</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E293" s="1">
         <v>4</v>
@@ -9402,7 +9402,7 @@
         <v>446</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E294" s="1">
         <v>6</v>
@@ -9428,7 +9428,7 @@
         <v>446</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E295" s="1">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>446</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E296" s="1">
         <v>3</v>
@@ -9480,7 +9480,7 @@
         <v>446</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E297" s="1">
         <v>5</v>
@@ -9506,7 +9506,7 @@
         <v>446</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E298" s="1">
         <v>2</v>

--- a/acs/Geographies for Kevin.xlsx
+++ b/acs/Geographies for Kevin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kguan17/Documents/GitHub/RA-Work/acs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7A246C-6A29-44C3-827E-DE1CE635ED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB821EA-52D5-F647-9D6A-75988AF8B5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1652,10 +1652,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1972,21 +1973,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
   <dimension ref="A1:J411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="D294" sqref="D294"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="68.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>203</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>205</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>207</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>208</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>260</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>148</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>161</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>180</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>199</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>200</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>201</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>209</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>257</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>258</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>273</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>276</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>278</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>287</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>291</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>295</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>296</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>305</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>309</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>316</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>323</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>327</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>338</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>339</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>373</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>374</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>376</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>379</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>391</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>392</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>393</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>394</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>395</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>406</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>407</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>411</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>417</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>424</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>428</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>430</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>437</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>438</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>439</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>440</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>134</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>135</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>136</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>138</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>139</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>140</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>142</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>143</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>144</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>145</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>146</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>159</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>160</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>167</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>169</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>171</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>172</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>173</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>174</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>175</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>176</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>177</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>178</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>179</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>187</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>188</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>189</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>190</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>191</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>192</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>195</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>196</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>197</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>198</v>
       </c>
@@ -5517,1385 +5518,1226 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E142" s="1">
+      <c r="D142" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E142" s="3">
         <v>18</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G142" s="1">
+      <c r="F142" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G142" s="3">
         <v>2021</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E143" s="1">
+      <c r="D143" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E143" s="3">
         <v>10</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G143" s="1">
+      <c r="F143" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G143" s="3">
         <v>2021</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E144" s="1">
+      <c r="D144" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E144" s="3">
         <v>11</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G144" s="1">
+      <c r="F144" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G144" s="3">
         <v>2021</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E145" s="1">
+      <c r="D145" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E145" s="3">
         <v>12</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G145" s="1">
+      <c r="F145" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G145" s="3">
         <v>2021</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E146" s="1">
+      <c r="D146" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E146" s="3">
         <v>13</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G146" s="1">
+      <c r="F146" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G146" s="3">
         <v>2021</v>
       </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E147" s="1">
+      <c r="D147" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E147" s="3">
         <v>14</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G147" s="1">
+      <c r="F147" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G147" s="3">
         <v>2021</v>
       </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E148" s="1">
+      <c r="D148" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E148" s="3">
         <v>15</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G148" s="1">
+      <c r="F148" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G148" s="3">
         <v>2021</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E149" s="1">
+      <c r="D149" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E149" s="3">
         <v>16</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G149" s="1">
+      <c r="F149" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G149" s="3">
         <v>2021</v>
       </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E150" s="1">
+      <c r="D150" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E150" s="3">
         <v>17</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G150" s="1">
+      <c r="F150" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G150" s="3">
         <v>2021</v>
       </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E151" s="1">
+      <c r="D151" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E151" s="3">
         <v>18</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G151" s="1">
+      <c r="F151" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G151" s="3">
         <v>2021</v>
       </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E152" s="1">
+      <c r="D152" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E152" s="3">
         <v>19</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G152" s="1">
+      <c r="F152" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G152" s="3">
         <v>2021</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E153" s="1">
-        <v>1</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G153" s="1">
+      <c r="D153" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G153" s="3">
         <v>2021</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E154" s="1">
+      <c r="D154" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E154" s="3">
         <v>20</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G154" s="1">
+      <c r="F154" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G154" s="3">
         <v>2021</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E155" s="1">
+      <c r="D155" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E155" s="3">
         <v>21</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G155" s="1">
+      <c r="F155" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G155" s="3">
         <v>2021</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E156" s="1">
+      <c r="D156" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E156" s="3">
         <v>22</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G156" s="1">
+      <c r="F156" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G156" s="3">
         <v>2021</v>
       </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E157" s="1">
+      <c r="D157" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E157" s="3">
         <v>23</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G157" s="1">
+      <c r="F157" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G157" s="3">
         <v>2021</v>
       </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E158" s="1">
+      <c r="D158" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E158" s="3">
         <v>24</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G158" s="1">
+      <c r="F158" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G158" s="3">
         <v>2021</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E159" s="1">
+      <c r="D159" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E159" s="3">
         <v>25</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G159" s="1">
+      <c r="F159" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G159" s="3">
         <v>2021</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E160" s="1">
+      <c r="D160" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E160" s="3">
         <v>26</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G160" s="1">
+      <c r="F160" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G160" s="3">
         <v>2021</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E161" s="1">
+      <c r="D161" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E161" s="3">
         <v>27</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G161" s="1">
+      <c r="F161" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G161" s="3">
         <v>2021</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E162" s="1">
+      <c r="D162" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E162" s="3">
         <v>28</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G162" s="1">
+      <c r="F162" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G162" s="3">
         <v>2021</v>
       </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E163" s="1">
+      <c r="D163" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E163" s="3">
         <v>29</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G163" s="1">
+      <c r="F163" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G163" s="3">
         <v>2021</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E164" s="1">
+      <c r="D164" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E164" s="3">
         <v>2</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G164" s="1">
+      <c r="F164" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G164" s="3">
         <v>2021</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E165" s="1">
+      <c r="D165" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E165" s="3">
         <v>30</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G165" s="1">
+      <c r="F165" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G165" s="3">
         <v>2021</v>
       </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E166" s="1">
+      <c r="D166" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E166" s="3">
         <v>31</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G166" s="1">
+      <c r="F166" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G166" s="3">
         <v>2021</v>
       </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E167" s="1">
+      <c r="D167" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E167" s="3">
         <v>32</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G167" s="1">
+      <c r="F167" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G167" s="3">
         <v>2021</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E168" s="1">
+      <c r="D168" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E168" s="3">
         <v>33</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G168" s="1">
+      <c r="F168" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G168" s="3">
         <v>2021</v>
       </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E169" s="1">
+      <c r="D169" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E169" s="3">
         <v>34</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G169" s="1">
+      <c r="F169" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G169" s="3">
         <v>2021</v>
       </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E170" s="1">
+      <c r="D170" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E170" s="3">
         <v>35</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G170" s="1">
+      <c r="F170" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G170" s="3">
         <v>2021</v>
       </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E171" s="1">
+      <c r="D171" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E171" s="3">
         <v>36</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G171" s="1">
+      <c r="F171" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G171" s="3">
         <v>2021</v>
       </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E172" s="1">
+      <c r="D172" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E172" s="3">
         <v>37</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G172" s="1">
+      <c r="F172" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G172" s="3">
         <v>2021</v>
       </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E173" s="1">
+      <c r="D173" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E173" s="3">
         <v>38</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G173" s="1">
+      <c r="F173" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G173" s="3">
         <v>2021</v>
       </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E174" s="1">
+      <c r="D174" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E174" s="3">
         <v>39</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G174" s="1">
+      <c r="F174" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G174" s="3">
         <v>2021</v>
       </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E175" s="1">
+      <c r="D175" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E175" s="3">
         <v>3</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G175" s="1">
+      <c r="F175" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G175" s="3">
         <v>2021</v>
       </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E176" s="1">
+      <c r="D176" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E176" s="3">
         <v>40</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G176" s="1">
+      <c r="F176" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G176" s="3">
         <v>2021</v>
       </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E177" s="1">
+      <c r="D177" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E177" s="3">
         <v>41</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G177" s="1">
+      <c r="F177" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G177" s="3">
         <v>2021</v>
       </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E178" s="1">
+      <c r="D178" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E178" s="3">
         <v>42</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G178" s="1">
+      <c r="F178" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G178" s="3">
         <v>2021</v>
       </c>
-      <c r="I178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E179" s="1">
+      <c r="D179" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E179" s="3">
         <v>45</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G179" s="1">
+      <c r="F179" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G179" s="3">
         <v>2021</v>
       </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E180" s="1">
+      <c r="D180" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E180" s="3">
         <v>46</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G180" s="1">
+      <c r="F180" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G180" s="3">
         <v>2021</v>
       </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E181" s="1">
+      <c r="D181" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E181" s="3">
         <v>47</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G181" s="1">
+      <c r="F181" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G181" s="3">
         <v>2021</v>
       </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E182" s="1">
+      <c r="D182" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E182" s="3">
         <v>48</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G182" s="1">
+      <c r="F182" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G182" s="3">
         <v>2021</v>
       </c>
-      <c r="I182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E183" s="1">
+      <c r="D183" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E183" s="3">
         <v>49</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G183" s="1">
+      <c r="F183" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G183" s="3">
         <v>2021</v>
       </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E184" s="1">
+      <c r="D184" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E184" s="3">
         <v>5</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G184" s="1">
+      <c r="F184" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G184" s="3">
         <v>2021</v>
       </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E185" s="1">
+      <c r="D185" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E185" s="3">
         <v>6</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G185" s="1">
+      <c r="F185" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G185" s="3">
         <v>2021</v>
       </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E186" s="1">
+      <c r="D186" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E186" s="3">
         <v>7</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G186" s="1">
+      <c r="F186" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G186" s="3">
         <v>2021</v>
       </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E187" s="1">
+      <c r="D187" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E187" s="3">
         <v>8</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G187" s="1">
+      <c r="F187" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G187" s="3">
         <v>2021</v>
       </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E188" s="1">
+      <c r="D188" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E188" s="3">
         <v>9</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G188" s="1">
+      <c r="F188" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G188" s="3">
         <v>2021</v>
       </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E189" s="1">
+      <c r="D189" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E189" s="3">
         <v>15</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G189" s="1">
+      <c r="F189" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G189" s="3">
         <v>2021</v>
       </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E190" s="1">
+      <c r="D190" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E190" s="3">
         <v>19</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G190" s="1">
+      <c r="F190" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G190" s="3">
         <v>2021</v>
       </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E191" s="1">
+      <c r="D191" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E191" s="3">
         <v>23</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G191" s="1">
+      <c r="F191" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G191" s="3">
         <v>2021</v>
       </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E192" s="1">
+      <c r="D192" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E192" s="3">
         <v>24</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G192" s="1">
+      <c r="F192" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G192" s="3">
         <v>2021</v>
       </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E193" s="1">
+      <c r="D193" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E193" s="3">
         <v>32</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G193" s="1">
+      <c r="F193" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G193" s="3">
         <v>2021</v>
       </c>
-      <c r="I193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E194" s="1">
+      <c r="D194" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E194" s="3">
         <v>50</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G194" s="1">
+      <c r="F194" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G194" s="3">
         <v>2021</v>
       </c>
-      <c r="I194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>270</v>
       </c>
@@ -6921,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>271</v>
       </c>
@@ -6947,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>272</v>
       </c>
@@ -6973,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>279</v>
       </c>
@@ -6999,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>280</v>
       </c>
@@ -7025,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>281</v>
       </c>
@@ -7051,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>282</v>
       </c>
@@ -7077,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>288</v>
       </c>
@@ -7103,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>289</v>
       </c>
@@ -7129,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>290</v>
       </c>
@@ -7155,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>297</v>
       </c>
@@ -7181,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>298</v>
       </c>
@@ -7207,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>299</v>
       </c>
@@ -7233,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>300</v>
       </c>
@@ -7259,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>306</v>
       </c>
@@ -7285,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>307</v>
       </c>
@@ -7311,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>308</v>
       </c>
@@ -7337,7 +7179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>312</v>
       </c>
@@ -7363,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>313</v>
       </c>
@@ -7389,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>314</v>
       </c>
@@ -7415,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>315</v>
       </c>
@@ -7441,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>321</v>
       </c>
@@ -7467,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>322</v>
       </c>
@@ -7493,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>342</v>
       </c>
@@ -7519,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>344</v>
       </c>
@@ -7545,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>345</v>
       </c>
@@ -7571,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>346</v>
       </c>
@@ -7597,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>347</v>
       </c>
@@ -7623,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>348</v>
       </c>
@@ -7649,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>349</v>
       </c>
@@ -7675,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>350</v>
       </c>
@@ -7701,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>351</v>
       </c>
@@ -7727,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>352</v>
       </c>
@@ -7753,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>353</v>
       </c>
@@ -7779,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>354</v>
       </c>
@@ -7805,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
@@ -7831,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>359</v>
       </c>
@@ -7857,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>360</v>
       </c>
@@ -7883,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>361</v>
       </c>
@@ -7909,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>362</v>
       </c>
@@ -7935,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>363</v>
       </c>
@@ -7961,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>364</v>
       </c>
@@ -7987,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>365</v>
       </c>
@@ -8013,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>366</v>
       </c>
@@ -8039,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>367</v>
       </c>
@@ -8065,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>368</v>
       </c>
@@ -8091,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>369</v>
       </c>
@@ -8117,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>370</v>
       </c>
@@ -8143,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>371</v>
       </c>
@@ -8169,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>372</v>
       </c>
@@ -8195,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>375</v>
       </c>
@@ -8221,7 +8063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>377</v>
       </c>
@@ -8247,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>378</v>
       </c>
@@ -8273,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>381</v>
       </c>
@@ -8299,7 +8141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>382</v>
       </c>
@@ -8325,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>383</v>
       </c>
@@ -8351,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>384</v>
       </c>
@@ -8377,7 +8219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>385</v>
       </c>
@@ -8403,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>386</v>
       </c>
@@ -8429,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>387</v>
       </c>
@@ -8455,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>388</v>
       </c>
@@ -8481,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>389</v>
       </c>
@@ -8507,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>390</v>
       </c>
@@ -8533,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>396</v>
       </c>
@@ -8559,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>397</v>
       </c>
@@ -8585,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>398</v>
       </c>
@@ -8611,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>399</v>
       </c>
@@ -8637,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>400</v>
       </c>
@@ -8663,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>401</v>
       </c>
@@ -8689,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>402</v>
       </c>
@@ -8715,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>403</v>
       </c>
@@ -8741,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>404</v>
       </c>
@@ -8767,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>405</v>
       </c>
@@ -8793,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>412</v>
       </c>
@@ -8815,8 +8657,11 @@
       <c r="G268" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>413</v>
       </c>
@@ -8838,8 +8683,11 @@
       <c r="G269" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>426</v>
       </c>
@@ -8862,7 +8710,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>427</v>
       </c>
@@ -8885,7 +8733,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>429</v>
       </c>
@@ -8908,7 +8756,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>431</v>
       </c>
@@ -8931,7 +8779,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>432</v>
       </c>
@@ -8954,7 +8802,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>433</v>
       </c>
@@ -8977,7 +8825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>434</v>
       </c>
@@ -9000,7 +8848,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>435</v>
       </c>
@@ -9023,7 +8871,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>436</v>
       </c>
@@ -9046,7 +8894,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>120</v>
       </c>
@@ -9066,7 +8914,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>130</v>
       </c>
@@ -9086,7 +8934,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>131</v>
       </c>
@@ -9106,7 +8954,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -9126,7 +8974,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>328</v>
       </c>
@@ -9146,7 +8994,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>330</v>
       </c>
@@ -9166,7 +9014,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>334</v>
       </c>
@@ -9186,7 +9034,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>332</v>
       </c>
@@ -9209,7 +9057,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>409</v>
       </c>
@@ -9235,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>410</v>
       </c>
@@ -9261,7 +9109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>414</v>
       </c>
@@ -9287,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>415</v>
       </c>
@@ -9313,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>416</v>
       </c>
@@ -9339,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>418</v>
       </c>
@@ -9365,7 +9213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>419</v>
       </c>
@@ -9391,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>420</v>
       </c>
@@ -9417,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>421</v>
       </c>
@@ -9443,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>422</v>
       </c>
@@ -9469,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>423</v>
       </c>
@@ -9495,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>425</v>
       </c>
@@ -9521,823 +9369,721 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1" t="s">
+      <c r="B299" s="3"/>
+      <c r="C299" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="D299" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E299" s="1">
-        <v>1</v>
-      </c>
-      <c r="F299" s="1" t="s">
+      <c r="E299" s="3">
+        <v>1</v>
+      </c>
+      <c r="F299" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G299" s="1">
+      <c r="G299" s="3">
         <v>2022</v>
       </c>
-      <c r="I299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1" t="s">
+      <c r="B300" s="3"/>
+      <c r="C300" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="D300" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E300" s="1">
+      <c r="E300" s="3">
         <v>10</v>
       </c>
-      <c r="F300" s="1" t="s">
+      <c r="F300" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G300" s="1">
+      <c r="G300" s="3">
         <v>2022</v>
       </c>
-      <c r="I300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1" t="s">
+      <c r="B301" s="3"/>
+      <c r="C301" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="D301" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E301" s="1">
+      <c r="E301" s="3">
         <v>11</v>
       </c>
-      <c r="F301" s="1" t="s">
+      <c r="F301" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G301" s="1">
+      <c r="G301" s="3">
         <v>2022</v>
       </c>
-      <c r="I301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1" t="s">
+      <c r="B302" s="3"/>
+      <c r="C302" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="D302" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E302" s="1">
+      <c r="E302" s="3">
         <v>12</v>
       </c>
-      <c r="F302" s="1" t="s">
+      <c r="F302" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G302" s="1">
+      <c r="G302" s="3">
         <v>2022</v>
       </c>
-      <c r="I302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1" t="s">
+      <c r="B303" s="3"/>
+      <c r="C303" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="D303" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E303" s="1">
+      <c r="E303" s="3">
         <v>13</v>
       </c>
-      <c r="F303" s="1" t="s">
+      <c r="F303" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G303" s="1">
+      <c r="G303" s="3">
         <v>2022</v>
       </c>
-      <c r="I303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1" t="s">
+      <c r="B304" s="3"/>
+      <c r="C304" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D304" s="1" t="s">
+      <c r="D304" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E304" s="1">
+      <c r="E304" s="3">
         <v>14</v>
       </c>
-      <c r="F304" s="1" t="s">
+      <c r="F304" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G304" s="1">
+      <c r="G304" s="3">
         <v>2022</v>
       </c>
-      <c r="I304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1" t="s">
+      <c r="B305" s="3"/>
+      <c r="C305" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D305" s="1" t="s">
+      <c r="D305" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E305" s="1">
+      <c r="E305" s="3">
         <v>15</v>
       </c>
-      <c r="F305" s="1" t="s">
+      <c r="F305" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G305" s="1">
+      <c r="G305" s="3">
         <v>2022</v>
       </c>
-      <c r="I305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B306" s="1"/>
-      <c r="C306" s="1" t="s">
+      <c r="B306" s="3"/>
+      <c r="C306" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="D306" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E306" s="1">
+      <c r="E306" s="3">
         <v>16</v>
       </c>
-      <c r="F306" s="1" t="s">
+      <c r="F306" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G306" s="1">
+      <c r="G306" s="3">
         <v>2022</v>
       </c>
-      <c r="I306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1" t="s">
+      <c r="B307" s="3"/>
+      <c r="C307" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="D307" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E307" s="1">
+      <c r="E307" s="3">
         <v>17</v>
       </c>
-      <c r="F307" s="1" t="s">
+      <c r="F307" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G307" s="1">
+      <c r="G307" s="3">
         <v>2022</v>
       </c>
-      <c r="I307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B308" s="1"/>
-      <c r="C308" s="1" t="s">
+      <c r="B308" s="3"/>
+      <c r="C308" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="D308" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E308" s="1">
+      <c r="E308" s="3">
         <v>18</v>
       </c>
-      <c r="F308" s="1" t="s">
+      <c r="F308" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G308" s="1">
+      <c r="G308" s="3">
         <v>2022</v>
       </c>
-      <c r="I308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1" t="s">
+      <c r="B309" s="3"/>
+      <c r="C309" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="D309" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E309" s="1">
+      <c r="E309" s="3">
         <v>19</v>
       </c>
-      <c r="F309" s="1" t="s">
+      <c r="F309" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G309" s="1">
+      <c r="G309" s="3">
         <v>2022</v>
       </c>
-      <c r="I309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1" t="s">
+      <c r="B310" s="3"/>
+      <c r="C310" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="D310" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E310" s="1">
+      <c r="E310" s="3">
         <v>2</v>
       </c>
-      <c r="F310" s="1" t="s">
+      <c r="F310" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G310" s="1">
+      <c r="G310" s="3">
         <v>2022</v>
       </c>
-      <c r="I310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B311" s="1"/>
-      <c r="C311" s="1" t="s">
+      <c r="B311" s="3"/>
+      <c r="C311" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="D311" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E311" s="1">
+      <c r="E311" s="3">
         <v>20</v>
       </c>
-      <c r="F311" s="1" t="s">
+      <c r="F311" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G311" s="1">
+      <c r="G311" s="3">
         <v>2022</v>
       </c>
-      <c r="I311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1" t="s">
+      <c r="B312" s="3"/>
+      <c r="C312" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="D312" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E312" s="1">
+      <c r="E312" s="3">
         <v>21</v>
       </c>
-      <c r="F312" s="1" t="s">
+      <c r="F312" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G312" s="1">
+      <c r="G312" s="3">
         <v>2022</v>
       </c>
-      <c r="I312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1" t="s">
+      <c r="B313" s="3"/>
+      <c r="C313" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="D313" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E313" s="1">
+      <c r="E313" s="3">
         <v>22</v>
       </c>
-      <c r="F313" s="1" t="s">
+      <c r="F313" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G313" s="1">
+      <c r="G313" s="3">
         <v>2022</v>
       </c>
-      <c r="I313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B314" s="1"/>
-      <c r="C314" s="1" t="s">
+      <c r="B314" s="3"/>
+      <c r="C314" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="D314" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E314" s="1">
+      <c r="E314" s="3">
         <v>23</v>
       </c>
-      <c r="F314" s="1" t="s">
+      <c r="F314" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G314" s="1">
+      <c r="G314" s="3">
         <v>2022</v>
       </c>
-      <c r="I314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1" t="s">
+      <c r="B315" s="3"/>
+      <c r="C315" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="D315" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E315" s="1">
+      <c r="E315" s="3">
         <v>24</v>
       </c>
-      <c r="F315" s="1" t="s">
+      <c r="F315" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G315" s="1">
+      <c r="G315" s="3">
         <v>2022</v>
       </c>
-      <c r="I315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1" t="s">
+      <c r="B316" s="3"/>
+      <c r="C316" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="D316" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E316" s="1">
+      <c r="E316" s="3">
         <v>25</v>
       </c>
-      <c r="F316" s="1" t="s">
+      <c r="F316" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G316" s="1">
+      <c r="G316" s="3">
         <v>2022</v>
       </c>
-      <c r="I316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B317" s="1"/>
-      <c r="C317" s="1" t="s">
+      <c r="B317" s="3"/>
+      <c r="C317" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="D317" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E317" s="1">
+      <c r="E317" s="3">
         <v>26</v>
       </c>
-      <c r="F317" s="1" t="s">
+      <c r="F317" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G317" s="1">
+      <c r="G317" s="3">
         <v>2022</v>
       </c>
-      <c r="I317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1" t="s">
+      <c r="B318" s="3"/>
+      <c r="C318" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="D318" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E318" s="1">
+      <c r="E318" s="3">
         <v>27</v>
       </c>
-      <c r="F318" s="1" t="s">
+      <c r="F318" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G318" s="1">
+      <c r="G318" s="3">
         <v>2022</v>
       </c>
-      <c r="I318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1" t="s">
+      <c r="B319" s="3"/>
+      <c r="C319" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="D319" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E319" s="1">
+      <c r="E319" s="3">
         <v>28</v>
       </c>
-      <c r="F319" s="1" t="s">
+      <c r="F319" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G319" s="1">
+      <c r="G319" s="3">
         <v>2022</v>
       </c>
-      <c r="I319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B320" s="1"/>
-      <c r="C320" s="1" t="s">
+      <c r="B320" s="3"/>
+      <c r="C320" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="D320" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E320" s="1">
+      <c r="E320" s="3">
         <v>29</v>
       </c>
-      <c r="F320" s="1" t="s">
+      <c r="F320" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G320" s="1">
+      <c r="G320" s="3">
         <v>2022</v>
       </c>
-      <c r="I320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B321" s="1"/>
-      <c r="C321" s="1" t="s">
+      <c r="B321" s="3"/>
+      <c r="C321" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="D321" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E321" s="1">
+      <c r="E321" s="3">
         <v>30</v>
       </c>
-      <c r="F321" s="1" t="s">
+      <c r="F321" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G321" s="1">
+      <c r="G321" s="3">
         <v>2022</v>
       </c>
-      <c r="I321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A322" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1" t="s">
+      <c r="B322" s="3"/>
+      <c r="C322" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="D322" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E322" s="1">
+      <c r="E322" s="3">
         <v>31</v>
       </c>
-      <c r="F322" s="1" t="s">
+      <c r="F322" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G322" s="1">
+      <c r="G322" s="3">
         <v>2022</v>
       </c>
-      <c r="I322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B323" s="1"/>
-      <c r="C323" s="1" t="s">
+      <c r="B323" s="3"/>
+      <c r="C323" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="D323" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E323" s="1">
+      <c r="E323" s="3">
         <v>32</v>
       </c>
-      <c r="F323" s="1" t="s">
+      <c r="F323" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G323" s="1">
+      <c r="G323" s="3">
         <v>2022</v>
       </c>
-      <c r="I323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1" t="s">
+      <c r="B324" s="3"/>
+      <c r="C324" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="D324" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E324" s="1">
+      <c r="E324" s="3">
         <v>33</v>
       </c>
-      <c r="F324" s="1" t="s">
+      <c r="F324" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G324" s="1">
+      <c r="G324" s="3">
         <v>2022</v>
       </c>
-      <c r="I324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1" t="s">
+      <c r="B325" s="3"/>
+      <c r="C325" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="D325" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E325" s="1">
+      <c r="E325" s="3">
         <v>34</v>
       </c>
-      <c r="F325" s="1" t="s">
+      <c r="F325" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G325" s="1">
+      <c r="G325" s="3">
         <v>2022</v>
       </c>
-      <c r="I325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B326" s="1"/>
-      <c r="C326" s="1" t="s">
+      <c r="B326" s="3"/>
+      <c r="C326" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="D326" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E326" s="1">
+      <c r="E326" s="3">
         <v>35</v>
       </c>
-      <c r="F326" s="1" t="s">
+      <c r="F326" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G326" s="1">
+      <c r="G326" s="3">
         <v>2022</v>
       </c>
-      <c r="I326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1" t="s">
+      <c r="B327" s="3"/>
+      <c r="C327" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D327" s="1" t="s">
+      <c r="D327" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E327" s="1">
+      <c r="E327" s="3">
         <v>39</v>
       </c>
-      <c r="F327" s="1" t="s">
+      <c r="F327" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G327" s="1">
+      <c r="G327" s="3">
         <v>2022</v>
       </c>
-      <c r="I327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1" t="s">
+      <c r="B328" s="3"/>
+      <c r="C328" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="D328" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E328" s="1">
+      <c r="E328" s="3">
         <v>4</v>
       </c>
-      <c r="F328" s="1" t="s">
+      <c r="F328" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G328" s="1">
+      <c r="G328" s="3">
         <v>2022</v>
       </c>
-      <c r="I328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1" t="s">
+      <c r="B329" s="3"/>
+      <c r="C329" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="D329" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E329" s="1">
+      <c r="E329" s="3">
         <v>5</v>
       </c>
-      <c r="F329" s="1" t="s">
+      <c r="F329" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G329" s="1">
+      <c r="G329" s="3">
         <v>2022</v>
       </c>
-      <c r="I329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1" t="s">
+      <c r="B330" s="3"/>
+      <c r="C330" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="D330" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E330" s="1">
+      <c r="E330" s="3">
         <v>6</v>
       </c>
-      <c r="F330" s="1" t="s">
+      <c r="F330" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G330" s="1">
+      <c r="G330" s="3">
         <v>2022</v>
       </c>
-      <c r="I330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1" t="s">
+      <c r="B331" s="3"/>
+      <c r="C331" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D331" s="1" t="s">
+      <c r="D331" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E331" s="1">
+      <c r="E331" s="3">
         <v>7</v>
       </c>
-      <c r="F331" s="1" t="s">
+      <c r="F331" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G331" s="1">
+      <c r="G331" s="3">
         <v>2022</v>
       </c>
-      <c r="I331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1" t="s">
+      <c r="B332" s="3"/>
+      <c r="C332" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="D332" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E332" s="1">
+      <c r="E332" s="3">
         <v>9</v>
       </c>
-      <c r="F332" s="1" t="s">
+      <c r="F332" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G332" s="1">
+      <c r="G332" s="3">
         <v>2022</v>
       </c>
-      <c r="I332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>123</v>
       </c>
@@ -10357,7 +10103,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>125</v>
       </c>
@@ -10377,7 +10123,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>126</v>
       </c>
@@ -10397,7 +10143,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>127</v>
       </c>
@@ -10417,7 +10163,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>343</v>
       </c>
@@ -10441,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>355</v>
       </c>
@@ -10465,475 +10211,421 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C339" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="D339" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E339" s="1">
+      <c r="E339" s="3">
         <v>2</v>
       </c>
-      <c r="F339" s="1" t="s">
+      <c r="F339" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G339" s="1">
+      <c r="G339" s="3">
         <v>2021</v>
       </c>
-      <c r="I339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="C340" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="D340" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E340" s="1">
+      <c r="E340" s="3">
         <v>3</v>
       </c>
-      <c r="F340" s="1" t="s">
+      <c r="F340" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G340" s="1">
+      <c r="G340" s="3">
         <v>2021</v>
       </c>
-      <c r="I340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="C341" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="D341" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E341" s="1">
+      <c r="E341" s="3">
         <v>4</v>
       </c>
-      <c r="F341" s="1" t="s">
+      <c r="F341" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G341" s="1">
+      <c r="G341" s="3">
         <v>2021</v>
       </c>
-      <c r="I341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B342" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="C342" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="D342" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E342" s="1">
+      <c r="E342" s="3">
         <v>5</v>
       </c>
-      <c r="F342" s="1" t="s">
+      <c r="F342" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G342" s="1">
+      <c r="G342" s="3">
         <v>2021</v>
       </c>
-      <c r="I342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="C343" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="D343" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E343" s="1">
+      <c r="E343" s="3">
         <v>6</v>
       </c>
-      <c r="F343" s="1" t="s">
+      <c r="F343" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G343" s="1">
+      <c r="G343" s="3">
         <v>2021</v>
       </c>
-      <c r="I343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B344" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="C344" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="D344" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E344" s="1">
+      <c r="E344" s="3">
         <v>2</v>
       </c>
-      <c r="F344" s="1" t="s">
+      <c r="F344" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G344" s="1">
+      <c r="G344" s="3">
         <v>2013</v>
       </c>
-      <c r="I344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B345" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="C345" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="D345" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E345" s="1">
+      <c r="E345" s="3">
         <v>6</v>
       </c>
-      <c r="F345" s="1" t="s">
+      <c r="F345" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G345" s="1">
+      <c r="G345" s="3">
         <v>2013</v>
       </c>
-      <c r="I345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B346" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="C346" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="D346" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E346" s="1">
-        <v>1</v>
-      </c>
-      <c r="F346" s="1" t="s">
+      <c r="E346" s="3">
+        <v>1</v>
+      </c>
+      <c r="F346" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G346" s="1">
+      <c r="G346" s="3">
         <v>2009</v>
       </c>
-      <c r="I346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="B347" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="C347" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="D347" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E347" s="1">
+      <c r="E347" s="3">
         <v>2</v>
       </c>
-      <c r="F347" s="1" t="s">
+      <c r="F347" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G347" s="1">
+      <c r="G347" s="3">
         <v>2009</v>
       </c>
-      <c r="I347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B348" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="C348" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="D348" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E348" s="1">
+      <c r="E348" s="3">
         <v>3</v>
       </c>
-      <c r="F348" s="1" t="s">
+      <c r="F348" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G348" s="1">
+      <c r="G348" s="3">
         <v>2009</v>
       </c>
-      <c r="I348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B349" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="C349" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="D349" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E349" s="1">
+      <c r="E349" s="3">
         <v>5</v>
       </c>
-      <c r="F349" s="1" t="s">
+      <c r="F349" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G349" s="1">
+      <c r="G349" s="3">
         <v>2009</v>
       </c>
-      <c r="I349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C350" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="D350" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E350" s="1">
+      <c r="E350" s="3">
         <v>6</v>
       </c>
-      <c r="F350" s="1" t="s">
+      <c r="F350" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G350" s="1">
+      <c r="G350" s="3">
         <v>2009</v>
       </c>
-      <c r="I350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B351" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="C351" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="D351" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E351" s="1">
-        <v>1</v>
-      </c>
-      <c r="F351" s="1" t="s">
+      <c r="E351" s="3">
+        <v>1</v>
+      </c>
+      <c r="F351" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G351" s="1">
+      <c r="G351" s="3">
         <v>2017</v>
       </c>
-      <c r="I351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B352" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="C352" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D352" s="1" t="s">
+      <c r="D352" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E352" s="1">
+      <c r="E352" s="3">
         <v>2</v>
       </c>
-      <c r="F352" s="1" t="s">
+      <c r="F352" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G352" s="1">
+      <c r="G352" s="3">
         <v>2017</v>
       </c>
-      <c r="I352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B353" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="C353" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D353" s="1" t="s">
+      <c r="D353" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E353" s="1">
+      <c r="E353" s="3">
         <v>3</v>
       </c>
-      <c r="F353" s="1" t="s">
+      <c r="F353" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G353" s="1">
+      <c r="G353" s="3">
         <v>2017</v>
       </c>
-      <c r="I353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="C354" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="D354" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E354" s="1">
+      <c r="E354" s="3">
         <v>4</v>
       </c>
-      <c r="F354" s="1" t="s">
+      <c r="F354" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G354" s="1">
+      <c r="G354" s="3">
         <v>2017</v>
       </c>
-      <c r="I354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C355" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="D355" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E355" s="1">
+      <c r="E355" s="3">
         <v>5</v>
       </c>
-      <c r="F355" s="1" t="s">
+      <c r="F355" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G355" s="1">
+      <c r="G355" s="3">
         <v>2017</v>
       </c>
-      <c r="I355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="C356" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="D356" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E356" s="1">
+      <c r="E356" s="3">
         <v>6</v>
       </c>
-      <c r="F356" s="1" t="s">
+      <c r="F356" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G356" s="1">
+      <c r="G356" s="3">
         <v>2017</v>
       </c>
-      <c r="I356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>340</v>
       </c>
@@ -10956,7 +10648,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>341</v>
       </c>
@@ -10979,7 +10671,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>274</v>
       </c>
@@ -11002,7 +10694,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>283</v>
       </c>
@@ -11025,7 +10717,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>284</v>
       </c>
@@ -11048,7 +10740,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>285</v>
       </c>
@@ -11071,7 +10763,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>286</v>
       </c>
@@ -11094,7 +10786,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>292</v>
       </c>
@@ -11117,7 +10809,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>293</v>
       </c>
@@ -11140,7 +10832,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>294</v>
       </c>
@@ -11163,7 +10855,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>301</v>
       </c>
@@ -11186,7 +10878,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>302</v>
       </c>
@@ -11209,7 +10901,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>303</v>
       </c>
@@ -11232,7 +10924,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>304</v>
       </c>
@@ -11255,7 +10947,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>310</v>
       </c>
@@ -11278,7 +10970,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>311</v>
       </c>
@@ -11301,7 +10993,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>317</v>
       </c>
@@ -11324,7 +11016,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>318</v>
       </c>
@@ -11347,7 +11039,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>319</v>
       </c>
@@ -11370,7 +11062,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>320</v>
       </c>
@@ -11393,7 +11085,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>324</v>
       </c>
@@ -11416,7 +11108,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>325</v>
       </c>
@@ -11439,7 +11131,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>326</v>
       </c>
@@ -11462,7 +11154,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>356</v>
       </c>
@@ -11486,7 +11178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>3</v>
       </c>
@@ -11508,7 +11200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>5</v>
       </c>
@@ -11530,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>8</v>
       </c>
@@ -11552,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>65</v>
       </c>
@@ -11574,7 +11266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>66</v>
       </c>
@@ -11596,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>113</v>
       </c>
@@ -11618,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>114</v>
       </c>
@@ -11640,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>115</v>
       </c>
@@ -11662,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>116</v>
       </c>
@@ -11684,7 +11376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>121</v>
       </c>
@@ -11706,7 +11398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>441</v>
       </c>
@@ -11728,7 +11420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>45</v>
       </c>
@@ -11748,7 +11440,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>48</v>
       </c>
@@ -11768,7 +11460,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>49</v>
       </c>
@@ -11788,7 +11480,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>50</v>
       </c>
@@ -11808,7 +11500,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>51</v>
       </c>
@@ -11828,7 +11520,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>52</v>
       </c>
@@ -11848,7 +11540,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>53</v>
       </c>
@@ -11868,7 +11560,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>54</v>
       </c>
@@ -11888,7 +11580,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>55</v>
       </c>
@@ -11908,7 +11600,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>56</v>
       </c>
@@ -11928,7 +11620,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>57</v>
       </c>
@@ -11948,7 +11640,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>58</v>
       </c>
@@ -11968,7 +11660,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>59</v>
       </c>
@@ -11988,7 +11680,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>60</v>
       </c>
@@ -12008,7 +11700,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>61</v>
       </c>
@@ -12028,7 +11720,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>62</v>
       </c>
@@ -12048,7 +11740,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>63</v>
       </c>
@@ -12068,7 +11760,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>64</v>
       </c>
@@ -12088,7 +11780,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>128</v>
       </c>
@@ -12108,18 +11800,18 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H411">
         <f>SUM(H1:H410)</f>
         <v>82</v>
       </c>
       <c r="I411">
         <f>SUM(I1:I410)</f>
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="J411">
         <f>(H411+I411)/409</f>
-        <v>0.82640586797066018</v>
+        <v>0.57457212713936434</v>
       </c>
     </row>
   </sheetData>
@@ -12138,11 +11830,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E132">
@@ -12163,11 +11855,11 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
@@ -12185,9 +11877,9 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D86">
